--- a/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
+++ b/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01a63ffdd6170d0a/Desktop/copy REU Research/bluejay/Venus-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C41CBD6-16E1-4A09-B17C-ADC8B0CE5F7F}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C145249B-6BFE-4F88-9C7F-059F918BA490}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="552" windowWidth="21528" windowHeight="11832" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="552" windowWidth="21528" windowHeight="11832" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neutral reactions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8863" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8893" uniqueCount="479">
   <si>
     <t>R1</t>
   </si>
@@ -1501,7 +1501,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1526,6 +1526,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1539,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1549,6 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1865,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E282" sqref="E282"/>
     </sheetView>
@@ -63780,11 +63787,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -64938,6 +64945,58 @@
       </c>
       <c r="K37" s="4" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B38" t="s">
+        <v>444</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" t="s">
+        <v>475</v>
+      </c>
+      <c r="F38" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" t="s">
+        <v>291</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B39" t="s">
+        <v>443</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" t="s">
+        <v>475</v>
+      </c>
+      <c r="F39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -66072,11 +66131,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y92"/>
+  <dimension ref="A1:Y96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD59"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -69794,7 +69853,7 @@
       <c r="A92" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C92" t="s">
@@ -69817,6 +69876,68 @@
       </c>
       <c r="K92" s="4" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" t="s">
+        <v>475</v>
+      </c>
+      <c r="F93" t="s">
+        <v>291</v>
+      </c>
+      <c r="G93" t="s">
+        <v>291</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B94" t="s">
+        <v>443</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" t="s">
+        <v>256</v>
+      </c>
+      <c r="E94" t="s">
+        <v>475</v>
+      </c>
+      <c r="F94" t="s">
+        <v>291</v>
+      </c>
+      <c r="G94" t="s">
+        <v>291</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
+++ b/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01a63ffdd6170d0a/Desktop/copy REU Research/bluejay/Venus-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561D5ABA-263A-40A2-A906-E1E919FDF874}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5DEDDE8-7D76-43B1-BFEE-C963507C72F6}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="552" windowWidth="21528" windowHeight="11832" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="900" windowWidth="21528" windowHeight="11832" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ion reactions" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9257" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9278" uniqueCount="545">
   <si>
     <t>R1</t>
   </si>
@@ -1628,9 +1628,6 @@
     <t>243-293</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>300-600</t>
   </si>
   <si>
@@ -1659,6 +1656,15 @@
   </si>
   <si>
     <t>I don’t have NCl in the modle yet nor know if it should be</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1768,7 +1774,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -46689,11 +46694,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y320"/>
+  <dimension ref="A1:Y321"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E301" sqref="E301"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D289" sqref="D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -63721,23 +63726,20 @@
       </c>
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>52</v>
-      </c>
-      <c r="B299" t="s">
-        <v>52</v>
+      <c r="A299" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D299" t="s">
-        <v>79</v>
-      </c>
-      <c r="E299" t="s">
-        <v>31</v>
+        <v>459</v>
       </c>
       <c r="G299">
         <v>2</v>
       </c>
-      <c r="L299">
-        <v>1.8E-12</v>
+      <c r="L299" s="1">
+        <v>1.2E-15</v>
       </c>
       <c r="M299">
         <v>0</v>
@@ -63748,7 +63750,7 @@
       <c r="O299">
         <v>0</v>
       </c>
-      <c r="P299">
+      <c r="P299" s="1">
         <v>0</v>
       </c>
       <c r="Q299">
@@ -63766,43 +63768,46 @@
       <c r="U299">
         <v>0</v>
       </c>
-      <c r="V299" t="s">
-        <v>229</v>
-      </c>
-      <c r="W299" t="s">
-        <v>105</v>
+      <c r="V299">
+        <v>298</v>
+      </c>
+      <c r="W299" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="Y299" t="s">
-        <v>42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B300" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D300" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="E300" t="s">
+        <v>31</v>
       </c>
       <c r="G300">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L300">
-        <v>1</v>
+        <v>1.8E-12</v>
       </c>
       <c r="M300">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N300">
         <v>0</v>
       </c>
       <c r="O300">
-        <v>2E-35</v>
+        <v>0</v>
       </c>
       <c r="P300">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q300">
         <v>0</v>
@@ -63820,10 +63825,10 @@
         <v>0</v>
       </c>
       <c r="V300" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W300" t="s">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="Y300" t="s">
         <v>42</v>
@@ -63834,10 +63839,10 @@
         <v>47</v>
       </c>
       <c r="B301" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D301" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G301">
         <v>4</v>
@@ -63876,7 +63881,7 @@
         <v>230</v>
       </c>
       <c r="W301" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="Y301" t="s">
         <v>42</v>
@@ -63887,10 +63892,10 @@
         <v>47</v>
       </c>
       <c r="B302" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D302" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G302">
         <v>4</v>
@@ -63899,19 +63904,19 @@
         <v>1</v>
       </c>
       <c r="M302">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N302">
-        <v>-1509</v>
+        <v>0</v>
       </c>
       <c r="O302">
-        <v>1.7E-33</v>
+        <v>2E-35</v>
       </c>
       <c r="P302">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q302">
-        <v>-1509</v>
+        <v>0</v>
       </c>
       <c r="R302">
         <v>0</v>
@@ -63923,13 +63928,13 @@
         <v>0</v>
       </c>
       <c r="U302">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V302" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="W302" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="Y302" t="s">
         <v>42</v>
@@ -63937,13 +63942,13 @@
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B303" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D303" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G303">
         <v>4</v>
@@ -63955,16 +63960,16 @@
         <v>0</v>
       </c>
       <c r="N303">
-        <v>0</v>
+        <v>-1509</v>
       </c>
       <c r="O303">
-        <v>5.0000000000000004E-32</v>
+        <v>1.7E-33</v>
       </c>
       <c r="P303">
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>0</v>
+        <v>-1509</v>
       </c>
       <c r="R303">
         <v>0</v>
@@ -63976,13 +63981,13 @@
         <v>0</v>
       </c>
       <c r="U303">
-        <v>0</v>
-      </c>
-      <c r="V303">
-        <v>298</v>
+        <v>0.4</v>
+      </c>
+      <c r="V303" t="s">
+        <v>57</v>
       </c>
       <c r="W303" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="Y303" t="s">
         <v>42</v>
@@ -63990,34 +63995,34 @@
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B304" t="s">
         <v>33</v>
       </c>
       <c r="D304" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="G304">
         <v>4</v>
       </c>
       <c r="L304">
-        <v>2.5300000000000002E-9</v>
+        <v>1</v>
       </c>
       <c r="M304">
-        <v>-0.41</v>
+        <v>0</v>
       </c>
       <c r="N304">
         <v>0</v>
       </c>
       <c r="O304">
-        <v>9.5599999999999997E-29</v>
+        <v>5.0000000000000004E-32</v>
       </c>
       <c r="P304">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="Q304">
-        <v>-212</v>
+        <v>0</v>
       </c>
       <c r="R304">
         <v>0</v>
@@ -64029,16 +64034,13 @@
         <v>0</v>
       </c>
       <c r="U304">
-        <v>0.82</v>
-      </c>
-      <c r="V304" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V304">
+        <v>298</v>
       </c>
       <c r="W304" t="s">
-        <v>233</v>
-      </c>
-      <c r="X304" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Y304" t="s">
         <v>42</v>
@@ -64049,31 +64051,31 @@
         <v>61</v>
       </c>
       <c r="B305" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D305" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G305">
         <v>4</v>
       </c>
       <c r="L305">
-        <v>4.8999999999999996E-10</v>
+        <v>2.5300000000000002E-9</v>
       </c>
       <c r="M305">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="N305">
         <v>0</v>
       </c>
       <c r="O305">
-        <v>9.1999999999999994E-28</v>
+        <v>9.5599999999999997E-29</v>
       </c>
       <c r="P305">
-        <v>-1.6</v>
+        <v>-1.17</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>-212</v>
       </c>
       <c r="R305">
         <v>0</v>
@@ -64085,13 +64087,13 @@
         <v>0</v>
       </c>
       <c r="U305">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="V305" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="W305" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="X305" t="s">
         <v>234</v>
@@ -64102,34 +64104,34 @@
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
+        <v>61</v>
+      </c>
+      <c r="B306" t="s">
         <v>31</v>
       </c>
-      <c r="B306" t="s">
-        <v>26</v>
-      </c>
       <c r="D306" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G306">
         <v>4</v>
       </c>
       <c r="L306">
-        <v>1</v>
+        <v>4.8999999999999996E-10</v>
       </c>
       <c r="M306">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N306">
         <v>0</v>
       </c>
       <c r="O306">
-        <v>5.46E-33</v>
+        <v>9.1999999999999994E-28</v>
       </c>
       <c r="P306">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="Q306">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="R306">
         <v>0</v>
@@ -64141,13 +64143,13 @@
         <v>0</v>
       </c>
       <c r="U306">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="V306" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W306" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="X306" t="s">
         <v>234</v>
@@ -64158,28 +64160,19 @@
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B307" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D307" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="G307">
         <v>4</v>
       </c>
-      <c r="H307">
-        <v>18</v>
-      </c>
-      <c r="I307">
-        <v>17</v>
-      </c>
-      <c r="J307">
-        <v>-0.5</v>
-      </c>
       <c r="L307">
-        <v>2.6000000000000001E-11</v>
+        <v>1</v>
       </c>
       <c r="M307">
         <v>0</v>
@@ -64188,13 +64181,13 @@
         <v>0</v>
       </c>
       <c r="O307">
-        <v>6.6000000000000006E-29</v>
+        <v>5.46E-33</v>
       </c>
       <c r="P307">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="R307">
         <v>0</v>
@@ -64206,10 +64199,16 @@
         <v>0</v>
       </c>
       <c r="U307">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="V307" t="s">
+        <v>236</v>
       </c>
       <c r="W307" t="s">
-        <v>87</v>
+        <v>237</v>
+      </c>
+      <c r="X307" t="s">
+        <v>234</v>
       </c>
       <c r="Y307" t="s">
         <v>42</v>
@@ -64217,17 +64216,26 @@
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B308" t="s">
         <v>52</v>
       </c>
       <c r="D308" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G308">
         <v>4</v>
       </c>
+      <c r="H308">
+        <v>18</v>
+      </c>
+      <c r="I308">
+        <v>17</v>
+      </c>
+      <c r="J308">
+        <v>-0.5</v>
+      </c>
       <c r="L308">
         <v>2.6000000000000001E-11</v>
       </c>
@@ -64258,46 +64266,40 @@
       <c r="U308">
         <v>0.5</v>
       </c>
-      <c r="V308" t="s">
-        <v>176</v>
-      </c>
       <c r="W308" t="s">
-        <v>49</v>
-      </c>
-      <c r="X308" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="Y308" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B309" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D309" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G309">
         <v>4</v>
       </c>
       <c r="L309">
-        <v>1</v>
+        <v>2.6000000000000001E-11</v>
       </c>
       <c r="M309">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="N309">
         <v>0</v>
       </c>
       <c r="O309">
-        <v>4.7499999999999999E-34</v>
+        <v>6.6000000000000006E-29</v>
       </c>
       <c r="P309">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="Q309">
         <v>0</v>
@@ -64312,51 +64314,48 @@
         <v>0</v>
       </c>
       <c r="U309">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="V309" t="s">
+        <v>176</v>
       </c>
       <c r="W309" t="s">
-        <v>105</v>
+        <v>49</v>
+      </c>
+      <c r="X309" t="s">
+        <v>238</v>
       </c>
       <c r="Y309" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B310" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D310" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="G310">
-        <v>5</v>
-      </c>
-      <c r="H310">
-        <v>18</v>
-      </c>
-      <c r="I310">
-        <v>17</v>
-      </c>
-      <c r="J310">
-        <v>-0.5</v>
+        <v>4</v>
       </c>
       <c r="L310">
-        <v>6.6242246742872797E-16</v>
+        <v>1</v>
       </c>
       <c r="M310">
-        <v>1.3</v>
+        <v>-0.9</v>
       </c>
       <c r="N310">
         <v>0</v>
       </c>
       <c r="O310">
-        <v>1.7330926013789299E-29</v>
+        <v>4.7499999999999999E-34</v>
       </c>
       <c r="P310">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
       <c r="Q310">
         <v>0</v>
@@ -64374,7 +64373,7 @@
         <v>0</v>
       </c>
       <c r="W310" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="Y310" t="s">
         <v>42</v>
@@ -64385,14 +64384,23 @@
         <v>47</v>
       </c>
       <c r="B311" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D311" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="G311">
         <v>5</v>
       </c>
+      <c r="H311">
+        <v>18</v>
+      </c>
+      <c r="I311">
+        <v>17</v>
+      </c>
+      <c r="J311">
+        <v>-0.5</v>
+      </c>
       <c r="L311">
         <v>6.6242246742872797E-16</v>
       </c>
@@ -64424,7 +64432,7 @@
         <v>0</v>
       </c>
       <c r="W311" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="Y311" t="s">
         <v>42</v>
@@ -64432,40 +64440,31 @@
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B312" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D312" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="G312">
         <v>5</v>
       </c>
-      <c r="H312">
-        <v>2</v>
-      </c>
-      <c r="I312">
-        <v>1</v>
-      </c>
-      <c r="J312">
-        <v>-0.5</v>
-      </c>
       <c r="L312">
-        <v>2.39682878878546E-11</v>
+        <v>6.6242246742872797E-16</v>
       </c>
       <c r="M312">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="N312">
         <v>0</v>
       </c>
       <c r="O312">
-        <v>1.46130309220551E-28</v>
+        <v>1.7330926013789299E-29</v>
       </c>
       <c r="P312">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="Q312">
         <v>0</v>
@@ -64483,7 +64482,7 @@
         <v>0</v>
       </c>
       <c r="W312" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="Y312" t="s">
         <v>42</v>
@@ -64491,19 +64490,28 @@
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B313" t="s">
         <v>69</v>
       </c>
       <c r="D313" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G313">
         <v>5</v>
       </c>
+      <c r="H313">
+        <v>2</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>-0.5</v>
+      </c>
       <c r="L313">
-        <v>2.39683E-11</v>
+        <v>2.39682878878546E-11</v>
       </c>
       <c r="M313">
         <v>0.2</v>
@@ -64512,7 +64520,7 @@
         <v>0</v>
       </c>
       <c r="O313">
-        <v>1.4613E-28</v>
+        <v>1.46130309220551E-28</v>
       </c>
       <c r="P313">
         <v>-1.3</v>
@@ -64533,7 +64541,7 @@
         <v>0</v>
       </c>
       <c r="W313" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="Y313" t="s">
         <v>42</v>
@@ -64541,31 +64549,31 @@
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B314" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D314" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="G314">
         <v>5</v>
       </c>
       <c r="L314">
-        <v>6.3699999999999997E-11</v>
+        <v>2.39683E-11</v>
       </c>
       <c r="M314">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N314">
         <v>0</v>
       </c>
       <c r="O314">
-        <v>1.93E-24</v>
+        <v>1.4613E-28</v>
       </c>
       <c r="P314">
-        <v>-2.6</v>
+        <v>-1.3</v>
       </c>
       <c r="Q314">
         <v>0</v>
@@ -64583,7 +64591,7 @@
         <v>0</v>
       </c>
       <c r="W314" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="Y314" t="s">
         <v>42</v>
@@ -64591,31 +64599,31 @@
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B315" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D315" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G315">
         <v>5</v>
       </c>
       <c r="L315">
-        <v>2.21E-11</v>
+        <v>6.3699999999999997E-11</v>
       </c>
       <c r="M315">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="N315">
         <v>0</v>
       </c>
       <c r="O315">
-        <v>5.0199999999999997E-23</v>
+        <v>1.93E-24</v>
       </c>
       <c r="P315">
-        <v>-3.4</v>
+        <v>-2.6</v>
       </c>
       <c r="Q315">
         <v>0</v>
@@ -64644,28 +64652,28 @@
         <v>91</v>
       </c>
       <c r="B316" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D316" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G316">
         <v>5</v>
       </c>
       <c r="L316">
-        <v>1.19E-9</v>
+        <v>2.21E-11</v>
       </c>
       <c r="M316">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="N316">
         <v>0</v>
       </c>
       <c r="O316">
-        <v>7.1899999999999994E-27</v>
+        <v>5.0199999999999997E-23</v>
       </c>
       <c r="P316">
-        <v>-1.8</v>
+        <v>-3.4</v>
       </c>
       <c r="Q316">
         <v>0</v>
@@ -64694,28 +64702,28 @@
         <v>91</v>
       </c>
       <c r="B317" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D317" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="G317">
         <v>5</v>
       </c>
       <c r="L317">
-        <v>2.8E-11</v>
+        <v>1.19E-9</v>
       </c>
       <c r="M317">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="N317">
         <v>0</v>
       </c>
       <c r="O317">
-        <v>4.8600000000000002E-23</v>
+        <v>7.1899999999999994E-27</v>
       </c>
       <c r="P317">
-        <v>-3</v>
+        <v>-1.8</v>
       </c>
       <c r="Q317">
         <v>0</v>
@@ -64747,25 +64755,25 @@
         <v>52</v>
       </c>
       <c r="D318" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G318">
         <v>5</v>
       </c>
       <c r="L318">
-        <v>7270000000000</v>
+        <v>2.8E-11</v>
       </c>
       <c r="M318">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N318">
         <v>0</v>
       </c>
       <c r="O318">
-        <v>4.1700000000000001E-22</v>
+        <v>4.8600000000000002E-23</v>
       </c>
       <c r="P318">
-        <v>-3.9</v>
+        <v>-3</v>
       </c>
       <c r="Q318">
         <v>0</v>
@@ -64791,43 +64799,31 @@
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B319" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D319" t="s">
-        <v>63</v>
-      </c>
-      <c r="E319" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="G319">
-        <v>6</v>
-      </c>
-      <c r="H319">
-        <v>18</v>
-      </c>
-      <c r="I319">
-        <v>17</v>
-      </c>
-      <c r="J319">
+        <v>5</v>
+      </c>
+      <c r="L319">
+        <v>7270000000000</v>
+      </c>
+      <c r="M319">
         <v>-0.5</v>
       </c>
-      <c r="L319">
-        <v>1.62846954489706E-6</v>
-      </c>
-      <c r="M319">
-        <v>6.1</v>
-      </c>
       <c r="N319">
         <v>0</v>
       </c>
       <c r="O319">
-        <v>4.8957418118048899E-15</v>
+        <v>4.1700000000000001E-22</v>
       </c>
       <c r="P319">
-        <v>0.6</v>
+        <v>-3.9</v>
       </c>
       <c r="Q319">
         <v>0</v>
@@ -64845,7 +64841,7 @@
         <v>0</v>
       </c>
       <c r="W319" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="Y319" t="s">
         <v>42</v>
@@ -64856,17 +64852,26 @@
         <v>47</v>
       </c>
       <c r="B320" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D320" t="s">
         <v>63</v>
       </c>
       <c r="E320" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G320">
         <v>6</v>
       </c>
+      <c r="H320">
+        <v>18</v>
+      </c>
+      <c r="I320">
+        <v>17</v>
+      </c>
+      <c r="J320">
+        <v>-0.5</v>
+      </c>
       <c r="L320">
         <v>1.62846954489706E-6</v>
       </c>
@@ -64898,9 +64903,62 @@
         <v>0</v>
       </c>
       <c r="W320" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y320" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>47</v>
+      </c>
+      <c r="B321" t="s">
+        <v>52</v>
+      </c>
+      <c r="D321" t="s">
+        <v>63</v>
+      </c>
+      <c r="E321" t="s">
+        <v>33</v>
+      </c>
+      <c r="G321">
+        <v>6</v>
+      </c>
+      <c r="L321">
+        <v>1.62846954489706E-6</v>
+      </c>
+      <c r="M321">
+        <v>6.1</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321">
+        <v>4.8957418118048899E-15</v>
+      </c>
+      <c r="P321">
+        <v>0.6</v>
+      </c>
+      <c r="Q321">
+        <v>0</v>
+      </c>
+      <c r="R321">
+        <v>0</v>
+      </c>
+      <c r="S321">
+        <v>0</v>
+      </c>
+      <c r="T321">
+        <v>0</v>
+      </c>
+      <c r="U321">
+        <v>0</v>
+      </c>
+      <c r="W321" t="s">
         <v>224</v>
       </c>
-      <c r="Y320" t="s">
+      <c r="Y321" t="s">
         <v>42</v>
       </c>
     </row>
@@ -64913,11 +64971,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -66123,6 +66181,35 @@
       </c>
       <c r="J39">
         <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B40" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" t="s">
+        <v>474</v>
+      </c>
+      <c r="F40" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -67257,11 +67344,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y159"/>
+  <dimension ref="A1:Y160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -70767,7 +70854,7 @@
       <c r="A79" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D79" t="s">
@@ -70919,7 +71006,7 @@
       <c r="E83" t="s">
         <v>93</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>2</v>
       </c>
       <c r="L83" s="1">
@@ -71061,7 +71148,7 @@
       <c r="A88" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" t="s">
         <v>469</v>
       </c>
       <c r="D88" t="s">
@@ -71819,13 +71906,13 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>56</v>
+        <v>416</v>
       </c>
       <c r="B109" t="s">
         <v>416</v>
       </c>
       <c r="C109" t="s">
-        <v>416</v>
+        <v>56</v>
       </c>
       <c r="D109" t="s">
         <v>469</v>
@@ -71854,7 +71941,7 @@
         <v>530</v>
       </c>
       <c r="X109" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Y109" t="s">
         <v>418</v>
@@ -71862,13 +71949,13 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B110" t="s">
         <v>416</v>
       </c>
       <c r="C110" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="D110" t="s">
         <v>469</v>
@@ -71897,7 +71984,7 @@
         <v>530</v>
       </c>
       <c r="X110" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Y110" t="s">
         <v>418</v>
@@ -71931,7 +72018,7 @@
       </c>
       <c r="P111" s="1"/>
       <c r="V111" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W111" s="3" t="s">
         <v>526</v>
@@ -71971,7 +72058,7 @@
         <v>300</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y112" t="s">
         <v>418</v>
@@ -72005,10 +72092,10 @@
       </c>
       <c r="P113" s="1"/>
       <c r="V113" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Y113" t="s">
         <v>418</v>
@@ -72116,13 +72203,13 @@
       </c>
       <c r="P116" s="1"/>
       <c r="V116" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X116" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Y116" t="s">
         <v>418</v>
@@ -72440,109 +72527,138 @@
         <v>504</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="11" t="s">
-        <v>495</v>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C138" t="s">
+        <v>79</v>
+      </c>
+      <c r="D138" t="s">
+        <v>256</v>
+      </c>
+      <c r="E138" t="s">
+        <v>542</v>
+      </c>
+      <c r="F138" t="s">
+        <v>543</v>
+      </c>
+      <c r="G138" t="s">
+        <v>543</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
-        <v>438</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
-        <v>536</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
+++ b/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01a63ffdd6170d0a/Desktop/copy REU Research/bluejay/Venus-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5DEDDE8-7D76-43B1-BFEE-C963507C72F6}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8477E7-B1A7-40DE-8AD1-ECE543926507}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="900" windowWidth="21528" windowHeight="11832" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="900" windowWidth="21528" windowHeight="11832" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ion reactions" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9278" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9411" uniqueCount="544">
   <si>
     <t>R1</t>
   </si>
@@ -1658,13 +1658,10 @@
     <t>I don’t have NCl in the modle yet nor know if it should be</t>
   </si>
   <si>
-    <t>new</t>
+    <t>HDSO4</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>mass scaling</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1702,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1748,6 +1745,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1761,7 +1764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1774,6 +1777,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -46694,11 +46698,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y321"/>
+  <dimension ref="A1:Y326"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D289" sqref="D289"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G294" sqref="G294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -62022,52 +62026,52 @@
         <v>424</v>
       </c>
       <c r="B269" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D269" t="s">
+        <v>415</v>
+      </c>
+      <c r="E269" t="s">
         <v>52</v>
-      </c>
-      <c r="D269" t="s">
-        <v>416</v>
-      </c>
-      <c r="E269" t="s">
-        <v>81</v>
       </c>
       <c r="G269">
         <v>2</v>
       </c>
       <c r="L269" s="1">
-        <v>7.4E-12</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="M269">
         <v>0</v>
       </c>
       <c r="N269" s="1">
-        <v>270</v>
+        <v>-4800</v>
       </c>
       <c r="O269">
         <v>0</v>
       </c>
-      <c r="P269">
+      <c r="P269" s="1">
         <v>0</v>
       </c>
       <c r="Q269">
         <v>0</v>
       </c>
-      <c r="R269">
+      <c r="R269" s="1">
         <v>0</v>
       </c>
       <c r="S269">
         <v>0</v>
       </c>
-      <c r="T269">
+      <c r="T269" s="1">
         <v>0</v>
       </c>
       <c r="U269">
         <v>0</v>
       </c>
       <c r="V269" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="W269" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="Y269" t="s">
         <v>418</v>
@@ -62081,39 +62085,39 @@
         <v>52</v>
       </c>
       <c r="D270" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E270" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G270">
         <v>2</v>
       </c>
       <c r="L270" s="1">
-        <v>5.9999999999999997E-13</v>
+        <v>7.4E-12</v>
       </c>
       <c r="M270">
         <v>0</v>
       </c>
       <c r="N270" s="1">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="O270">
         <v>0</v>
       </c>
-      <c r="P270" s="1">
+      <c r="P270">
         <v>0</v>
       </c>
       <c r="Q270">
         <v>0</v>
       </c>
-      <c r="R270" s="1">
+      <c r="R270">
         <v>0</v>
       </c>
       <c r="S270">
         <v>0</v>
       </c>
-      <c r="T270" s="1">
+      <c r="T270">
         <v>0</v>
       </c>
       <c r="U270">
@@ -62123,7 +62127,7 @@
         <v>434</v>
       </c>
       <c r="W270" t="s">
-        <v>510</v>
+        <v>435</v>
       </c>
       <c r="Y270" t="s">
         <v>418</v>
@@ -62134,52 +62138,52 @@
         <v>424</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>91</v>
+        <v>415</v>
       </c>
       <c r="E271" t="s">
-        <v>416</v>
+        <v>69</v>
       </c>
       <c r="G271">
         <v>2</v>
       </c>
       <c r="L271" s="1">
-        <v>6.2000000000000002E-12</v>
+        <v>5.9999999999999997E-13</v>
       </c>
       <c r="M271">
         <v>0</v>
       </c>
       <c r="N271" s="1">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="O271">
         <v>0</v>
       </c>
-      <c r="P271">
+      <c r="P271" s="1">
         <v>0</v>
       </c>
       <c r="Q271">
         <v>0</v>
       </c>
-      <c r="R271">
+      <c r="R271" s="1">
         <v>0</v>
       </c>
       <c r="S271">
         <v>0</v>
       </c>
-      <c r="T271">
+      <c r="T271" s="1">
         <v>0</v>
       </c>
       <c r="U271">
         <v>0</v>
       </c>
       <c r="V271" t="s">
-        <v>436</v>
-      </c>
-      <c r="W271" s="3" t="s">
-        <v>422</v>
+        <v>434</v>
+      </c>
+      <c r="W271" t="s">
+        <v>510</v>
       </c>
       <c r="Y271" t="s">
         <v>418</v>
@@ -62187,32 +62191,28 @@
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D272" t="s">
+        <v>91</v>
+      </c>
+      <c r="E272" t="s">
         <v>416</v>
-      </c>
-      <c r="E272" t="s">
-        <v>47</v>
-      </c>
-      <c r="F272" t="s">
-        <v>93</v>
       </c>
       <c r="G272">
         <v>2</v>
       </c>
-      <c r="K272" s="1"/>
       <c r="L272" s="1">
-        <v>4.0999999999999998E-10</v>
+        <v>6.2000000000000002E-12</v>
       </c>
       <c r="M272">
         <v>0</v>
       </c>
       <c r="N272" s="1">
-        <v>-2960</v>
+        <v>295</v>
       </c>
       <c r="O272">
         <v>0</v>
@@ -62236,10 +62236,10 @@
         <v>0</v>
       </c>
       <c r="V272" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="W272" s="3" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="Y272" t="s">
         <v>418</v>
@@ -62247,32 +62247,32 @@
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D273" t="s">
         <v>416</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="E273" t="s">
         <v>47</v>
       </c>
-      <c r="C273" t="s">
+      <c r="F273" t="s">
         <v>93</v>
       </c>
-      <c r="D273" t="s">
-        <v>431</v>
-      </c>
-      <c r="E273" t="s">
-        <v>93</v>
-      </c>
-      <c r="G273" s="4">
+      <c r="G273">
         <v>2</v>
       </c>
       <c r="K273" s="1"/>
       <c r="L273" s="1">
-        <v>3.36E-24</v>
+        <v>4.0999999999999998E-10</v>
       </c>
       <c r="M273">
-        <v>-3.8</v>
+        <v>0</v>
       </c>
       <c r="N273" s="1">
-        <v>0</v>
+        <v>-2960</v>
       </c>
       <c r="O273">
         <v>0</v>
@@ -62299,10 +62299,7 @@
         <v>425</v>
       </c>
       <c r="W273" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="X273" s="4" t="s">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="Y273" t="s">
         <v>418</v>
@@ -62310,27 +62307,31 @@
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B274" s="10" t="s">
-        <v>69</v>
+        <v>416</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C274" t="s">
+        <v>93</v>
       </c>
       <c r="D274" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="E274" t="s">
-        <v>31</v>
-      </c>
-      <c r="G274">
+        <v>93</v>
+      </c>
+      <c r="G274" s="4">
         <v>2</v>
       </c>
+      <c r="K274" s="1"/>
       <c r="L274" s="1">
-        <v>2.3100000000000001E-12</v>
+        <v>3.36E-24</v>
       </c>
       <c r="M274">
-        <v>0</v>
-      </c>
-      <c r="N274">
+        <v>-3.8</v>
+      </c>
+      <c r="N274" s="1">
         <v>0</v>
       </c>
       <c r="O274">
@@ -62355,10 +62356,13 @@
         <v>0</v>
       </c>
       <c r="V274" t="s">
-        <v>175</v>
-      </c>
-      <c r="W274" t="s">
-        <v>445</v>
+        <v>425</v>
+      </c>
+      <c r="W274" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="X274" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="Y274" t="s">
         <v>418</v>
@@ -62369,19 +62373,19 @@
         <v>443</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D275" t="s">
         <v>444</v>
       </c>
       <c r="E275" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="G275">
         <v>2</v>
       </c>
       <c r="L275" s="1">
-        <v>1.2000000000000001E-11</v>
+        <v>2.3100000000000001E-12</v>
       </c>
       <c r="M275">
         <v>0</v>
@@ -62410,11 +62414,11 @@
       <c r="U275">
         <v>0</v>
       </c>
-      <c r="V275">
-        <v>298</v>
-      </c>
-      <c r="W275" s="3" t="s">
-        <v>447</v>
+      <c r="V275" t="s">
+        <v>175</v>
+      </c>
+      <c r="W275" t="s">
+        <v>445</v>
       </c>
       <c r="Y275" t="s">
         <v>418</v>
@@ -62425,19 +62429,19 @@
         <v>443</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D276" t="s">
         <v>444</v>
       </c>
       <c r="E276" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G276">
         <v>2</v>
       </c>
       <c r="L276" s="1">
-        <v>6.6000000000000005E-11</v>
+        <v>1.2000000000000001E-11</v>
       </c>
       <c r="M276">
         <v>0</v>
@@ -62466,11 +62470,11 @@
       <c r="U276">
         <v>0</v>
       </c>
-      <c r="V276" t="s">
-        <v>448</v>
-      </c>
-      <c r="W276" t="s">
-        <v>449</v>
+      <c r="V276">
+        <v>298</v>
+      </c>
+      <c r="W276" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="Y276" t="s">
         <v>418</v>
@@ -62478,28 +62482,28 @@
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D277" t="s">
         <v>444</v>
       </c>
-      <c r="B277" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D277" t="s">
-        <v>450</v>
-      </c>
       <c r="E277" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G277">
         <v>2</v>
       </c>
       <c r="L277" s="1">
-        <v>1.6E-13</v>
-      </c>
-      <c r="M277" s="1">
-        <v>0</v>
-      </c>
-      <c r="N277" s="1">
-        <v>-2280</v>
+        <v>6.6000000000000005E-11</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
       </c>
       <c r="O277">
         <v>0</v>
@@ -62523,10 +62527,10 @@
         <v>0</v>
       </c>
       <c r="V277" t="s">
-        <v>429</v>
-      </c>
-      <c r="W277" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
+      </c>
+      <c r="W277" t="s">
+        <v>449</v>
       </c>
       <c r="Y277" t="s">
         <v>418</v>
@@ -62537,25 +62541,25 @@
         <v>444</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D278" t="s">
         <v>450</v>
       </c>
       <c r="E278" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="G278">
         <v>2</v>
       </c>
       <c r="L278" s="1">
-        <v>4.4999999999999998E-12</v>
+        <v>1.6E-13</v>
       </c>
       <c r="M278" s="1">
         <v>0</v>
       </c>
       <c r="N278" s="1">
-        <v>-1170</v>
+        <v>-2280</v>
       </c>
       <c r="O278">
         <v>0</v>
@@ -62593,25 +62597,25 @@
         <v>444</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D279" t="s">
         <v>450</v>
       </c>
       <c r="E279" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G279">
         <v>2</v>
       </c>
       <c r="L279" s="1">
-        <v>8.6E-11</v>
-      </c>
-      <c r="M279">
-        <v>0</v>
-      </c>
-      <c r="N279">
-        <v>0</v>
+        <v>4.4999999999999998E-12</v>
+      </c>
+      <c r="M279" s="1">
+        <v>0</v>
+      </c>
+      <c r="N279" s="1">
+        <v>-1170</v>
       </c>
       <c r="O279">
         <v>0</v>
@@ -62634,11 +62638,11 @@
       <c r="U279">
         <v>0</v>
       </c>
-      <c r="V279">
-        <v>298</v>
-      </c>
-      <c r="W279" t="s">
-        <v>445</v>
+      <c r="V279" t="s">
+        <v>429</v>
+      </c>
+      <c r="W279" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="Y279" t="s">
         <v>418</v>
@@ -62648,20 +62652,20 @@
       <c r="A280" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B280" s="9" t="s">
-        <v>81</v>
+      <c r="B280" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D280" t="s">
         <v>450</v>
       </c>
       <c r="E280" t="s">
-        <v>52</v>
-      </c>
-      <c r="G280" s="4">
+        <v>33</v>
+      </c>
+      <c r="G280">
         <v>2</v>
       </c>
       <c r="L280" s="1">
-        <v>2.8E-11</v>
+        <v>8.6E-11</v>
       </c>
       <c r="M280">
         <v>0</v>
@@ -62690,11 +62694,11 @@
       <c r="U280">
         <v>0</v>
       </c>
+      <c r="V280">
+        <v>298</v>
+      </c>
       <c r="W280" t="s">
-        <v>512</v>
-      </c>
-      <c r="X280" s="4" t="s">
-        <v>513</v>
+        <v>445</v>
       </c>
       <c r="Y280" t="s">
         <v>418</v>
@@ -62704,20 +62708,20 @@
       <c r="A281" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B281" s="10" t="s">
-        <v>424</v>
+      <c r="B281" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D281" t="s">
         <v>450</v>
       </c>
       <c r="E281" t="s">
-        <v>416</v>
-      </c>
-      <c r="G281">
+        <v>52</v>
+      </c>
+      <c r="G281" s="4">
         <v>2</v>
       </c>
       <c r="L281" s="1">
-        <v>2.8099999999999999E-11</v>
+        <v>2.8E-11</v>
       </c>
       <c r="M281">
         <v>0</v>
@@ -62746,11 +62750,11 @@
       <c r="U281">
         <v>0</v>
       </c>
-      <c r="V281" t="s">
-        <v>175</v>
-      </c>
       <c r="W281" t="s">
-        <v>452</v>
+        <v>512</v>
+      </c>
+      <c r="X281" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="Y281" t="s">
         <v>418</v>
@@ -62761,19 +62765,19 @@
         <v>444</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D282" t="s">
         <v>450</v>
       </c>
       <c r="E282" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="G282">
         <v>2</v>
       </c>
       <c r="L282" s="1">
-        <v>3.5000000000000001E-15</v>
+        <v>2.8099999999999999E-11</v>
       </c>
       <c r="M282">
         <v>0</v>
@@ -62802,11 +62806,11 @@
       <c r="U282">
         <v>0</v>
       </c>
-      <c r="V282">
-        <v>298</v>
+      <c r="V282" t="s">
+        <v>175</v>
       </c>
       <c r="W282" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y282" t="s">
         <v>418</v>
@@ -62817,19 +62821,19 @@
         <v>444</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>91</v>
+        <v>444</v>
       </c>
       <c r="D283" t="s">
         <v>450</v>
       </c>
       <c r="E283" t="s">
-        <v>61</v>
+        <v>443</v>
       </c>
       <c r="G283">
         <v>2</v>
       </c>
       <c r="L283" s="1">
-        <v>1.4E-11</v>
+        <v>3.5000000000000001E-15</v>
       </c>
       <c r="M283">
         <v>0</v>
@@ -62858,11 +62862,11 @@
       <c r="U283">
         <v>0</v>
       </c>
-      <c r="V283" t="s">
-        <v>467</v>
-      </c>
-      <c r="W283" s="3" t="s">
-        <v>447</v>
+      <c r="V283">
+        <v>298</v>
+      </c>
+      <c r="W283" t="s">
+        <v>453</v>
       </c>
       <c r="Y283" t="s">
         <v>418</v>
@@ -62870,22 +62874,22 @@
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D284" t="s">
         <v>450</v>
       </c>
-      <c r="B284" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D284" t="s">
-        <v>454</v>
-      </c>
       <c r="E284" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G284">
         <v>2</v>
       </c>
       <c r="L284" s="1">
-        <v>8.6300000000000002E-16</v>
+        <v>1.4E-11</v>
       </c>
       <c r="M284">
         <v>0</v>
@@ -62914,11 +62918,11 @@
       <c r="U284">
         <v>0</v>
       </c>
-      <c r="V284">
-        <v>300</v>
-      </c>
-      <c r="W284" t="s">
-        <v>457</v>
+      <c r="V284" t="s">
+        <v>467</v>
+      </c>
+      <c r="W284" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="Y284" t="s">
         <v>418</v>
@@ -62929,20 +62933,19 @@
         <v>450</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="D285" t="s">
         <v>454</v>
       </c>
       <c r="E285" t="s">
-        <v>416</v>
+        <v>52</v>
       </c>
       <c r="G285">
         <v>2</v>
       </c>
-      <c r="K285" s="1"/>
       <c r="L285" s="1">
-        <v>4.0000000000000003E-18</v>
+        <v>8.6300000000000002E-16</v>
       </c>
       <c r="M285">
         <v>0</v>
@@ -62972,13 +62975,10 @@
         <v>0</v>
       </c>
       <c r="V285">
-        <v>298</v>
-      </c>
-      <c r="W285" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="X285" s="4" t="s">
-        <v>476</v>
+        <v>300</v>
+      </c>
+      <c r="W285" t="s">
+        <v>457</v>
       </c>
       <c r="Y285" t="s">
         <v>418</v>
@@ -62986,22 +62986,23 @@
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D286" t="s">
         <v>454</v>
       </c>
-      <c r="B286" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="D286" t="s">
-        <v>450</v>
-      </c>
       <c r="E286" t="s">
-        <v>450</v>
-      </c>
-      <c r="G286" s="8">
+        <v>416</v>
+      </c>
+      <c r="G286">
         <v>2</v>
       </c>
+      <c r="K286" s="1"/>
       <c r="L286" s="1">
-        <v>1.99E-15</v>
+        <v>4.0000000000000003E-18</v>
       </c>
       <c r="M286">
         <v>0</v>
@@ -63033,8 +63034,11 @@
       <c r="V286">
         <v>298</v>
       </c>
-      <c r="W286" t="s">
-        <v>477</v>
+      <c r="W286" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="X286" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="Y286" t="s">
         <v>418</v>
@@ -63042,28 +63046,28 @@
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B287" s="10" t="s">
-        <v>416</v>
+        <v>454</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="D287" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="E287" t="s">
-        <v>33</v>
-      </c>
-      <c r="G287">
+        <v>450</v>
+      </c>
+      <c r="G287" s="8">
         <v>2</v>
       </c>
       <c r="L287" s="1">
-        <v>1.1000000000000001E-11</v>
+        <v>1.99E-15</v>
       </c>
       <c r="M287">
         <v>0</v>
       </c>
       <c r="N287">
-        <v>-1130</v>
+        <v>0</v>
       </c>
       <c r="O287">
         <v>0</v>
@@ -63086,14 +63090,11 @@
       <c r="U287">
         <v>0</v>
       </c>
-      <c r="V287" t="s">
-        <v>522</v>
+      <c r="V287">
+        <v>298</v>
       </c>
       <c r="W287" t="s">
-        <v>523</v>
-      </c>
-      <c r="X287" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Y287" t="s">
         <v>418</v>
@@ -63101,28 +63102,28 @@
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D288" t="s">
         <v>478</v>
       </c>
       <c r="E288" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="G288">
         <v>2</v>
       </c>
       <c r="L288" s="1">
-        <v>1.6900000000000001E-13</v>
+        <v>1.1000000000000001E-11</v>
       </c>
       <c r="M288">
         <v>0</v>
       </c>
       <c r="N288">
-        <v>363</v>
+        <v>-1130</v>
       </c>
       <c r="O288">
         <v>0</v>
@@ -63146,10 +63147,13 @@
         <v>0</v>
       </c>
       <c r="V288" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="W288" t="s">
-        <v>482</v>
+        <v>523</v>
+      </c>
+      <c r="X288" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="Y288" t="s">
         <v>418</v>
@@ -63157,33 +63161,39 @@
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B289" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D289" t="s">
         <v>478</v>
       </c>
       <c r="E289" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G289">
         <v>2</v>
       </c>
+      <c r="H289">
+        <v>34</v>
+      </c>
+      <c r="I289">
+        <v>33</v>
+      </c>
       <c r="L289" s="1">
-        <v>1.05E-10</v>
+        <v>1.7999999999999999E-11</v>
       </c>
       <c r="M289">
         <v>0</v>
       </c>
       <c r="N289" s="1">
-        <v>-109</v>
+        <v>169</v>
       </c>
       <c r="O289">
         <v>0</v>
       </c>
-      <c r="P289" s="1">
+      <c r="P289">
         <v>0</v>
       </c>
       <c r="Q289">
@@ -63202,10 +63212,10 @@
         <v>0</v>
       </c>
       <c r="V289" t="s">
-        <v>522</v>
-      </c>
-      <c r="W289" t="s">
-        <v>501</v>
+        <v>427</v>
+      </c>
+      <c r="W289" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y289" t="s">
         <v>418</v>
@@ -63213,28 +63223,34 @@
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B290" s="10" t="s">
-        <v>415</v>
+        <v>72</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="D290" t="s">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="E290" t="s">
-        <v>416</v>
+        <v>52</v>
       </c>
       <c r="G290">
         <v>2</v>
       </c>
+      <c r="H290">
+        <v>3</v>
+      </c>
+      <c r="I290">
+        <v>2</v>
+      </c>
       <c r="L290" s="1">
-        <v>6.7400000000000005E-10</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="M290">
         <v>0</v>
       </c>
       <c r="N290" s="1">
-        <v>-537</v>
+        <v>-4800</v>
       </c>
       <c r="O290">
         <v>0</v>
@@ -63245,23 +63261,23 @@
       <c r="Q290">
         <v>0</v>
       </c>
-      <c r="R290">
+      <c r="R290" s="1">
         <v>0</v>
       </c>
       <c r="S290">
         <v>0</v>
       </c>
-      <c r="T290">
+      <c r="T290" s="1">
         <v>0</v>
       </c>
       <c r="U290">
         <v>0</v>
       </c>
       <c r="V290" t="s">
-        <v>522</v>
-      </c>
-      <c r="W290" t="s">
-        <v>501</v>
+        <v>175</v>
+      </c>
+      <c r="W290" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y290" t="s">
         <v>418</v>
@@ -63269,55 +63285,61 @@
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B291" s="10" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="D291" t="s">
+        <v>415</v>
+      </c>
+      <c r="E291" t="s">
         <v>80</v>
-      </c>
-      <c r="E291" t="s">
-        <v>416</v>
       </c>
       <c r="G291">
         <v>2</v>
       </c>
+      <c r="H291">
+        <v>3</v>
+      </c>
+      <c r="I291">
+        <v>2</v>
+      </c>
       <c r="L291" s="1">
-        <v>3.7E-12</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="M291">
         <v>0</v>
       </c>
       <c r="N291" s="1">
-        <v>-3520</v>
+        <v>-4800</v>
       </c>
       <c r="O291">
         <v>0</v>
       </c>
-      <c r="P291">
+      <c r="P291" s="1">
         <v>0</v>
       </c>
       <c r="Q291">
         <v>0</v>
       </c>
-      <c r="R291">
+      <c r="R291" s="1">
         <v>0</v>
       </c>
       <c r="S291">
         <v>0</v>
       </c>
-      <c r="T291">
+      <c r="T291" s="1">
         <v>0</v>
       </c>
       <c r="U291">
         <v>0</v>
       </c>
       <c r="V291" t="s">
-        <v>487</v>
-      </c>
-      <c r="W291" t="s">
-        <v>486</v>
+        <v>175</v>
+      </c>
+      <c r="W291" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y291" t="s">
         <v>418</v>
@@ -63325,33 +63347,39 @@
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B292" s="10" t="s">
-        <v>485</v>
+        <v>80</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="D292" t="s">
-        <v>424</v>
+        <v>83</v>
       </c>
       <c r="E292" t="s">
-        <v>71</v>
-      </c>
-      <c r="G292">
+        <v>416</v>
+      </c>
+      <c r="G292" s="8">
         <v>2</v>
       </c>
+      <c r="H292">
+        <v>18</v>
+      </c>
+      <c r="I292">
+        <v>17</v>
+      </c>
       <c r="L292" s="1">
-        <v>6E-11</v>
+        <v>1.7999999999999999E-11</v>
       </c>
       <c r="M292">
         <v>0</v>
       </c>
       <c r="N292" s="1">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="O292">
         <v>0</v>
       </c>
-      <c r="P292" s="1">
+      <c r="P292">
         <v>0</v>
       </c>
       <c r="Q292">
@@ -63369,14 +63397,11 @@
       <c r="U292">
         <v>0</v>
       </c>
-      <c r="V292">
-        <v>298</v>
-      </c>
-      <c r="W292" t="s">
-        <v>488</v>
-      </c>
-      <c r="X292" s="4" t="s">
-        <v>489</v>
+      <c r="V292" t="s">
+        <v>427</v>
+      </c>
+      <c r="W292" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y292" t="s">
         <v>418</v>
@@ -63384,33 +63409,33 @@
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="D293" t="s">
         <v>478</v>
       </c>
-      <c r="B293" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="D293" t="s">
-        <v>80</v>
-      </c>
       <c r="E293" t="s">
-        <v>416</v>
+        <v>69</v>
       </c>
       <c r="G293">
         <v>2</v>
       </c>
       <c r="L293" s="1">
-        <v>1.06E-10</v>
+        <v>1.6900000000000001E-13</v>
       </c>
       <c r="M293">
         <v>0</v>
       </c>
-      <c r="N293" s="1">
-        <v>0</v>
+      <c r="N293">
+        <v>363</v>
       </c>
       <c r="O293">
         <v>0</v>
       </c>
-      <c r="P293" s="1">
+      <c r="P293">
         <v>0</v>
       </c>
       <c r="Q293">
@@ -63428,11 +63453,11 @@
       <c r="U293">
         <v>0</v>
       </c>
-      <c r="V293">
-        <v>298</v>
+      <c r="V293" t="s">
+        <v>480</v>
       </c>
       <c r="W293" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Y293" t="s">
         <v>418</v>
@@ -63440,13 +63465,14 @@
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>478</v>
+        <v>71</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>416</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C294" s="12"/>
       <c r="D294" t="s">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="E294" t="s">
         <v>416</v>
@@ -63454,19 +63480,25 @@
       <c r="G294">
         <v>2</v>
       </c>
+      <c r="H294">
+        <v>2</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
       <c r="L294" s="1">
-        <v>2.5400000000000001E-12</v>
+        <v>1.4900000000000002E-11</v>
       </c>
       <c r="M294">
         <v>0</v>
       </c>
       <c r="N294" s="1">
-        <v>-3180</v>
+        <v>-1760</v>
       </c>
       <c r="O294">
         <v>0</v>
       </c>
-      <c r="P294" s="1">
+      <c r="P294">
         <v>0</v>
       </c>
       <c r="Q294">
@@ -63485,10 +63517,10 @@
         <v>0</v>
       </c>
       <c r="V294" t="s">
-        <v>406</v>
-      </c>
-      <c r="W294" t="s">
-        <v>483</v>
+        <v>420</v>
+      </c>
+      <c r="W294" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y294" t="s">
         <v>418</v>
@@ -63499,25 +63531,25 @@
         <v>478</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>33</v>
+        <v>416</v>
       </c>
       <c r="D295" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="E295" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="G295">
         <v>2</v>
       </c>
       <c r="L295" s="1">
-        <v>1.4399999999999999E-10</v>
+        <v>2.5400000000000001E-12</v>
       </c>
       <c r="M295">
         <v>0</v>
       </c>
       <c r="N295" s="1">
-        <v>-481</v>
+        <v>-3180</v>
       </c>
       <c r="O295">
         <v>0</v>
@@ -63541,13 +63573,10 @@
         <v>0</v>
       </c>
       <c r="V295" t="s">
-        <v>522</v>
+        <v>406</v>
       </c>
       <c r="W295" t="s">
-        <v>501</v>
-      </c>
-      <c r="X295" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Y295" t="s">
         <v>418</v>
@@ -63561,22 +63590,22 @@
         <v>33</v>
       </c>
       <c r="D296" t="s">
-        <v>72</v>
+        <v>415</v>
       </c>
       <c r="E296" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="G296">
         <v>2</v>
       </c>
       <c r="L296" s="1">
-        <v>1.3E-11</v>
+        <v>1.4399999999999999E-10</v>
       </c>
       <c r="M296">
         <v>0</v>
       </c>
       <c r="N296" s="1">
-        <v>-1575</v>
+        <v>-481</v>
       </c>
       <c r="O296">
         <v>0</v>
@@ -63600,10 +63629,10 @@
         <v>0</v>
       </c>
       <c r="V296" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="W296" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="X296" s="4" t="s">
         <v>479</v>
@@ -63617,10 +63646,10 @@
         <v>478</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D297" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E297" t="s">
         <v>416</v>
@@ -63629,13 +63658,13 @@
         <v>2</v>
       </c>
       <c r="L297" s="1">
-        <v>4.2800000000000003E-12</v>
+        <v>3.7E-12</v>
       </c>
       <c r="M297">
         <v>0</v>
       </c>
-      <c r="N297">
-        <v>-767</v>
+      <c r="N297" s="1">
+        <v>-3520</v>
       </c>
       <c r="O297">
         <v>0</v>
@@ -63659,10 +63688,10 @@
         <v>0</v>
       </c>
       <c r="V297" t="s">
-        <v>525</v>
-      </c>
-      <c r="W297" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
+      </c>
+      <c r="W297" t="s">
+        <v>486</v>
       </c>
       <c r="Y297" t="s">
         <v>418</v>
@@ -63670,29 +63699,28 @@
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="D298" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="E298" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="G298">
         <v>2</v>
       </c>
-      <c r="K298" s="1"/>
       <c r="L298" s="1">
-        <v>8.1249999999999995E-18</v>
+        <v>6E-11</v>
       </c>
       <c r="M298">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="N298" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O298">
         <v>0</v>
@@ -63715,11 +63743,14 @@
       <c r="U298">
         <v>0</v>
       </c>
-      <c r="V298" t="s">
-        <v>176</v>
-      </c>
-      <c r="W298" s="3" t="s">
-        <v>490</v>
+      <c r="V298">
+        <v>298</v>
+      </c>
+      <c r="W298" t="s">
+        <v>488</v>
+      </c>
+      <c r="X298" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="Y298" t="s">
         <v>418</v>
@@ -63727,24 +63758,27 @@
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="D299" t="s">
-        <v>459</v>
+        <v>80</v>
+      </c>
+      <c r="E299" t="s">
+        <v>416</v>
       </c>
       <c r="G299">
         <v>2</v>
       </c>
       <c r="L299" s="1">
-        <v>1.2E-15</v>
+        <v>1.06E-10</v>
       </c>
       <c r="M299">
         <v>0</v>
       </c>
-      <c r="N299">
+      <c r="N299" s="1">
         <v>0</v>
       </c>
       <c r="O299">
@@ -63771,42 +63805,42 @@
       <c r="V299">
         <v>298</v>
       </c>
-      <c r="W299" s="5" t="s">
-        <v>461</v>
+      <c r="W299" t="s">
+        <v>488</v>
       </c>
       <c r="Y299" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>52</v>
-      </c>
-      <c r="B300" t="s">
-        <v>52</v>
+      <c r="A300" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D300" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E300" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="G300">
         <v>2</v>
       </c>
-      <c r="L300">
-        <v>1.8E-12</v>
+      <c r="L300" s="1">
+        <v>1.3E-11</v>
       </c>
       <c r="M300">
         <v>0</v>
       </c>
-      <c r="N300">
-        <v>0</v>
+      <c r="N300" s="1">
+        <v>-1575</v>
       </c>
       <c r="O300">
         <v>0</v>
       </c>
-      <c r="P300">
+      <c r="P300" s="1">
         <v>0</v>
       </c>
       <c r="Q300">
@@ -63825,42 +63859,48 @@
         <v>0</v>
       </c>
       <c r="V300" t="s">
-        <v>229</v>
+        <v>500</v>
       </c>
       <c r="W300" t="s">
-        <v>105</v>
+        <v>499</v>
+      </c>
+      <c r="X300" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="Y300" t="s">
-        <v>42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>47</v>
-      </c>
-      <c r="B301" t="s">
-        <v>71</v>
+      <c r="A301" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D301" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="E301" t="s">
+        <v>416</v>
       </c>
       <c r="G301">
-        <v>4</v>
-      </c>
-      <c r="L301">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L301" s="1">
+        <v>4.2800000000000003E-12</v>
       </c>
       <c r="M301">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N301">
-        <v>0</v>
+        <v>-767</v>
       </c>
       <c r="O301">
-        <v>2E-35</v>
+        <v>0</v>
       </c>
       <c r="P301">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q301">
         <v>0</v>
@@ -63878,42 +63918,46 @@
         <v>0</v>
       </c>
       <c r="V301" t="s">
-        <v>230</v>
-      </c>
-      <c r="W301" t="s">
-        <v>231</v>
+        <v>525</v>
+      </c>
+      <c r="W301" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="Y301" t="s">
-        <v>42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>47</v>
-      </c>
-      <c r="B302" t="s">
-        <v>33</v>
+      <c r="A302" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D302" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="E302" t="s">
+        <v>416</v>
       </c>
       <c r="G302">
-        <v>4</v>
-      </c>
-      <c r="L302">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1">
+        <v>8.1249999999999995E-18</v>
       </c>
       <c r="M302">
-        <v>0.2</v>
-      </c>
-      <c r="N302">
-        <v>0</v>
+        <v>1.85</v>
+      </c>
+      <c r="N302" s="1">
+        <v>300</v>
       </c>
       <c r="O302">
-        <v>2E-35</v>
-      </c>
-      <c r="P302">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="P302" s="1">
+        <v>0</v>
       </c>
       <c r="Q302">
         <v>0</v>
@@ -63931,45 +63975,45 @@
         <v>0</v>
       </c>
       <c r="V302" t="s">
-        <v>230</v>
-      </c>
-      <c r="W302" t="s">
-        <v>49</v>
+        <v>176</v>
+      </c>
+      <c r="W302" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="Y302" t="s">
-        <v>42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>47</v>
-      </c>
-      <c r="B303" t="s">
-        <v>31</v>
+      <c r="A303" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D303" t="s">
-        <v>63</v>
+        <v>459</v>
       </c>
       <c r="G303">
-        <v>4</v>
-      </c>
-      <c r="L303">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L303" s="1">
+        <v>1.2E-15</v>
       </c>
       <c r="M303">
         <v>0</v>
       </c>
       <c r="N303">
-        <v>-1509</v>
+        <v>0</v>
       </c>
       <c r="O303">
-        <v>1.7E-33</v>
-      </c>
-      <c r="P303">
+        <v>0</v>
+      </c>
+      <c r="P303" s="1">
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>-1509</v>
+        <v>0</v>
       </c>
       <c r="R303">
         <v>0</v>
@@ -63981,33 +64025,42 @@
         <v>0</v>
       </c>
       <c r="U303">
-        <v>0.4</v>
-      </c>
-      <c r="V303" t="s">
-        <v>57</v>
-      </c>
-      <c r="W303" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="V303">
+        <v>298</v>
+      </c>
+      <c r="W303" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="Y303" t="s">
-        <v>42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>26</v>
-      </c>
-      <c r="B304" t="s">
-        <v>33</v>
+      <c r="A304" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D304" t="s">
-        <v>58</v>
+        <v>542</v>
       </c>
       <c r="G304">
-        <v>4</v>
-      </c>
-      <c r="L304">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H304">
+        <v>19</v>
+      </c>
+      <c r="I304">
+        <v>18</v>
+      </c>
+      <c r="J304">
+        <v>-0.5</v>
+      </c>
+      <c r="L304" s="1">
+        <v>1.2E-15</v>
       </c>
       <c r="M304">
         <v>0</v>
@@ -64016,9 +64069,9 @@
         <v>0</v>
       </c>
       <c r="O304">
-        <v>5.0000000000000004E-32</v>
-      </c>
-      <c r="P304">
+        <v>0</v>
+      </c>
+      <c r="P304" s="1">
         <v>0</v>
       </c>
       <c r="Q304">
@@ -64039,43 +64092,46 @@
       <c r="V304">
         <v>298</v>
       </c>
-      <c r="W304" t="s">
-        <v>232</v>
+      <c r="W304" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y304" t="s">
-        <v>42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B305" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D305" t="s">
-        <v>119</v>
+        <v>79</v>
+      </c>
+      <c r="E305" t="s">
+        <v>31</v>
       </c>
       <c r="G305">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L305">
-        <v>2.5300000000000002E-9</v>
+        <v>1.8E-12</v>
       </c>
       <c r="M305">
-        <v>-0.41</v>
+        <v>0</v>
       </c>
       <c r="N305">
         <v>0</v>
       </c>
       <c r="O305">
-        <v>9.5599999999999997E-29</v>
+        <v>0</v>
       </c>
       <c r="P305">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="Q305">
-        <v>-212</v>
+        <v>0</v>
       </c>
       <c r="R305">
         <v>0</v>
@@ -64087,16 +64143,13 @@
         <v>0</v>
       </c>
       <c r="U305">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="V305" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="W305" t="s">
-        <v>233</v>
-      </c>
-      <c r="X305" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="Y305" t="s">
         <v>42</v>
@@ -64104,31 +64157,31 @@
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B306" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D306" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G306">
         <v>4</v>
       </c>
       <c r="L306">
-        <v>4.8999999999999996E-10</v>
+        <v>1</v>
       </c>
       <c r="M306">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N306">
         <v>0</v>
       </c>
       <c r="O306">
-        <v>9.1999999999999994E-28</v>
+        <v>2E-35</v>
       </c>
       <c r="P306">
-        <v>-1.6</v>
+        <v>0.2</v>
       </c>
       <c r="Q306">
         <v>0</v>
@@ -64143,16 +64196,13 @@
         <v>0</v>
       </c>
       <c r="U306">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V306" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="W306" t="s">
-        <v>49</v>
-      </c>
-      <c r="X306" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Y306" t="s">
         <v>42</v>
@@ -64160,13 +64210,13 @@
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B307" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D307" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G307">
         <v>4</v>
@@ -64175,19 +64225,19 @@
         <v>1</v>
       </c>
       <c r="M307">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N307">
         <v>0</v>
       </c>
       <c r="O307">
-        <v>5.46E-33</v>
+        <v>2E-35</v>
       </c>
       <c r="P307">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q307">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="R307">
         <v>0</v>
@@ -64199,16 +64249,13 @@
         <v>0</v>
       </c>
       <c r="U307">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V307" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="W307" t="s">
-        <v>237</v>
-      </c>
-      <c r="X307" t="s">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="Y307" t="s">
         <v>42</v>
@@ -64216,43 +64263,34 @@
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B308" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D308" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G308">
         <v>4</v>
       </c>
-      <c r="H308">
-        <v>18</v>
-      </c>
-      <c r="I308">
-        <v>17</v>
-      </c>
-      <c r="J308">
-        <v>-0.5</v>
-      </c>
       <c r="L308">
-        <v>2.6000000000000001E-11</v>
+        <v>1</v>
       </c>
       <c r="M308">
         <v>0</v>
       </c>
       <c r="N308">
-        <v>0</v>
+        <v>-1509</v>
       </c>
       <c r="O308">
-        <v>6.6000000000000006E-29</v>
+        <v>1.7E-33</v>
       </c>
       <c r="P308">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="Q308">
-        <v>0</v>
+        <v>-1509</v>
       </c>
       <c r="R308">
         <v>0</v>
@@ -64264,10 +64302,13 @@
         <v>0</v>
       </c>
       <c r="U308">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="V308" t="s">
+        <v>57</v>
       </c>
       <c r="W308" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="Y308" t="s">
         <v>42</v>
@@ -64275,19 +64316,19 @@
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B309" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D309" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G309">
         <v>4</v>
       </c>
       <c r="L309">
-        <v>2.6000000000000001E-11</v>
+        <v>1</v>
       </c>
       <c r="M309">
         <v>0</v>
@@ -64296,10 +64337,10 @@
         <v>0</v>
       </c>
       <c r="O309">
-        <v>6.6000000000000006E-29</v>
+        <v>5.0000000000000004E-32</v>
       </c>
       <c r="P309">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="Q309">
         <v>0</v>
@@ -64314,51 +64355,48 @@
         <v>0</v>
       </c>
       <c r="U309">
-        <v>0.5</v>
-      </c>
-      <c r="V309" t="s">
-        <v>176</v>
+        <v>0</v>
+      </c>
+      <c r="V309">
+        <v>298</v>
       </c>
       <c r="W309" t="s">
-        <v>49</v>
-      </c>
-      <c r="X309" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Y309" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B310" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D310" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G310">
         <v>4</v>
       </c>
       <c r="L310">
-        <v>1</v>
+        <v>2.5300000000000002E-9</v>
       </c>
       <c r="M310">
-        <v>-0.9</v>
+        <v>-0.41</v>
       </c>
       <c r="N310">
         <v>0</v>
       </c>
       <c r="O310">
-        <v>4.7499999999999999E-34</v>
+        <v>9.5599999999999997E-29</v>
       </c>
       <c r="P310">
-        <v>-0.9</v>
+        <v>-1.17</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-212</v>
       </c>
       <c r="R310">
         <v>0</v>
@@ -64370,10 +64408,16 @@
         <v>0</v>
       </c>
       <c r="U310">
-        <v>0</v>
+        <v>0.82</v>
+      </c>
+      <c r="V310" t="s">
+        <v>57</v>
       </c>
       <c r="W310" t="s">
-        <v>105</v>
+        <v>233</v>
+      </c>
+      <c r="X310" t="s">
+        <v>234</v>
       </c>
       <c r="Y310" t="s">
         <v>42</v>
@@ -64381,40 +64425,31 @@
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B311" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D311" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G311">
-        <v>5</v>
-      </c>
-      <c r="H311">
-        <v>18</v>
-      </c>
-      <c r="I311">
-        <v>17</v>
-      </c>
-      <c r="J311">
-        <v>-0.5</v>
+        <v>4</v>
       </c>
       <c r="L311">
-        <v>6.6242246742872797E-16</v>
+        <v>4.8999999999999996E-10</v>
       </c>
       <c r="M311">
-        <v>1.3</v>
+        <v>-0.4</v>
       </c>
       <c r="N311">
         <v>0</v>
       </c>
       <c r="O311">
-        <v>1.7330926013789299E-29</v>
+        <v>9.1999999999999994E-28</v>
       </c>
       <c r="P311">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="Q311">
         <v>0</v>
@@ -64429,10 +64464,16 @@
         <v>0</v>
       </c>
       <c r="U311">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="V311" t="s">
+        <v>235</v>
       </c>
       <c r="W311" t="s">
-        <v>87</v>
+        <v>49</v>
+      </c>
+      <c r="X311" t="s">
+        <v>234</v>
       </c>
       <c r="Y311" t="s">
         <v>42</v>
@@ -64440,34 +64481,34 @@
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B312" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D312" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="G312">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L312">
-        <v>6.6242246742872797E-16</v>
+        <v>1</v>
       </c>
       <c r="M312">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N312">
         <v>0</v>
       </c>
       <c r="O312">
-        <v>1.7330926013789299E-29</v>
+        <v>5.46E-33</v>
       </c>
       <c r="P312">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="R312">
         <v>0</v>
@@ -64479,10 +64520,16 @@
         <v>0</v>
       </c>
       <c r="U312">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="V312" t="s">
+        <v>236</v>
       </c>
       <c r="W312" t="s">
-        <v>105</v>
+        <v>237</v>
+      </c>
+      <c r="X312" t="s">
+        <v>234</v>
       </c>
       <c r="Y312" t="s">
         <v>42</v>
@@ -64490,40 +64537,40 @@
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B313" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D313" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G313">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J313">
         <v>-0.5</v>
       </c>
       <c r="L313">
-        <v>2.39682878878546E-11</v>
+        <v>2.6000000000000001E-11</v>
       </c>
       <c r="M313">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N313">
         <v>0</v>
       </c>
       <c r="O313">
-        <v>1.46130309220551E-28</v>
+        <v>6.6000000000000006E-29</v>
       </c>
       <c r="P313">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="Q313">
         <v>0</v>
@@ -64538,7 +64585,7 @@
         <v>0</v>
       </c>
       <c r="U313">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W313" t="s">
         <v>87</v>
@@ -64549,31 +64596,31 @@
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B314" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D314" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G314">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L314">
-        <v>2.39683E-11</v>
+        <v>2.6000000000000001E-11</v>
       </c>
       <c r="M314">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N314">
         <v>0</v>
       </c>
       <c r="O314">
-        <v>1.4613E-28</v>
+        <v>6.6000000000000006E-29</v>
       </c>
       <c r="P314">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="Q314">
         <v>0</v>
@@ -64588,42 +64635,48 @@
         <v>0</v>
       </c>
       <c r="U314">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="V314" t="s">
+        <v>176</v>
       </c>
       <c r="W314" t="s">
-        <v>224</v>
+        <v>49</v>
+      </c>
+      <c r="X314" t="s">
+        <v>238</v>
       </c>
       <c r="Y314" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B315" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D315" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="G315">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L315">
-        <v>6.3699999999999997E-11</v>
+        <v>1</v>
       </c>
       <c r="M315">
-        <v>-0.1</v>
+        <v>-0.9</v>
       </c>
       <c r="N315">
         <v>0</v>
       </c>
       <c r="O315">
-        <v>1.93E-24</v>
+        <v>4.7499999999999999E-34</v>
       </c>
       <c r="P315">
-        <v>-2.6</v>
+        <v>-0.9</v>
       </c>
       <c r="Q315">
         <v>0</v>
@@ -64649,31 +64702,40 @@
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B316" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D316" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="G316">
         <v>5</v>
       </c>
+      <c r="H316">
+        <v>18</v>
+      </c>
+      <c r="I316">
+        <v>17</v>
+      </c>
+      <c r="J316">
+        <v>-0.5</v>
+      </c>
       <c r="L316">
-        <v>2.21E-11</v>
+        <v>6.6242246742872797E-16</v>
       </c>
       <c r="M316">
-        <v>-0.3</v>
+        <v>1.3</v>
       </c>
       <c r="N316">
         <v>0</v>
       </c>
       <c r="O316">
-        <v>5.0199999999999997E-23</v>
+        <v>1.7330926013789299E-29</v>
       </c>
       <c r="P316">
-        <v>-3.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q316">
         <v>0</v>
@@ -64691,7 +64753,7 @@
         <v>0</v>
       </c>
       <c r="W316" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="Y316" t="s">
         <v>42</v>
@@ -64699,31 +64761,31 @@
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B317" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D317" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="G317">
         <v>5</v>
       </c>
       <c r="L317">
-        <v>1.19E-9</v>
+        <v>6.6242246742872797E-16</v>
       </c>
       <c r="M317">
-        <v>-0.7</v>
+        <v>1.3</v>
       </c>
       <c r="N317">
         <v>0</v>
       </c>
       <c r="O317">
-        <v>7.1899999999999994E-27</v>
+        <v>1.7330926013789299E-29</v>
       </c>
       <c r="P317">
-        <v>-1.8</v>
+        <v>-1.4</v>
       </c>
       <c r="Q317">
         <v>0</v>
@@ -64749,31 +64811,40 @@
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B318" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D318" t="s">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="G318">
         <v>5</v>
       </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+      <c r="J318">
+        <v>-0.5</v>
+      </c>
       <c r="L318">
-        <v>2.8E-11</v>
+        <v>2.39682878878546E-11</v>
       </c>
       <c r="M318">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N318">
         <v>0</v>
       </c>
       <c r="O318">
-        <v>4.8600000000000002E-23</v>
+        <v>1.46130309220551E-28</v>
       </c>
       <c r="P318">
-        <v>-3</v>
+        <v>-1.3</v>
       </c>
       <c r="Q318">
         <v>0</v>
@@ -64791,7 +64862,7 @@
         <v>0</v>
       </c>
       <c r="W318" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="Y318" t="s">
         <v>42</v>
@@ -64799,31 +64870,31 @@
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B319" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D319" t="s">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="G319">
         <v>5</v>
       </c>
       <c r="L319">
-        <v>7270000000000</v>
+        <v>2.39683E-11</v>
       </c>
       <c r="M319">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N319">
         <v>0</v>
       </c>
       <c r="O319">
-        <v>4.1700000000000001E-22</v>
+        <v>1.4613E-28</v>
       </c>
       <c r="P319">
-        <v>-3.9</v>
+        <v>-1.3</v>
       </c>
       <c r="Q319">
         <v>0</v>
@@ -64841,7 +64912,7 @@
         <v>0</v>
       </c>
       <c r="W319" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="Y319" t="s">
         <v>42</v>
@@ -64849,43 +64920,31 @@
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B320" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D320" t="s">
-        <v>63</v>
-      </c>
-      <c r="E320" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="G320">
-        <v>6</v>
-      </c>
-      <c r="H320">
-        <v>18</v>
-      </c>
-      <c r="I320">
-        <v>17</v>
-      </c>
-      <c r="J320">
-        <v>-0.5</v>
+        <v>5</v>
       </c>
       <c r="L320">
-        <v>1.62846954489706E-6</v>
+        <v>6.3699999999999997E-11</v>
       </c>
       <c r="M320">
-        <v>6.1</v>
+        <v>-0.1</v>
       </c>
       <c r="N320">
         <v>0</v>
       </c>
       <c r="O320">
-        <v>4.8957418118048899E-15</v>
+        <v>1.93E-24</v>
       </c>
       <c r="P320">
-        <v>0.6</v>
+        <v>-2.6</v>
       </c>
       <c r="Q320">
         <v>0</v>
@@ -64903,7 +64962,7 @@
         <v>0</v>
       </c>
       <c r="W320" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="Y320" t="s">
         <v>42</v>
@@ -64911,54 +64970,316 @@
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
+        <v>91</v>
+      </c>
+      <c r="B321" t="s">
+        <v>81</v>
+      </c>
+      <c r="D321" t="s">
+        <v>240</v>
+      </c>
+      <c r="G321">
+        <v>5</v>
+      </c>
+      <c r="L321">
+        <v>2.21E-11</v>
+      </c>
+      <c r="M321">
+        <v>-0.3</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321">
+        <v>5.0199999999999997E-23</v>
+      </c>
+      <c r="P321">
+        <v>-3.4</v>
+      </c>
+      <c r="Q321">
+        <v>0</v>
+      </c>
+      <c r="R321">
+        <v>0</v>
+      </c>
+      <c r="S321">
+        <v>0</v>
+      </c>
+      <c r="T321">
+        <v>0</v>
+      </c>
+      <c r="U321">
+        <v>0</v>
+      </c>
+      <c r="W321" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y321" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>91</v>
+      </c>
+      <c r="B322" t="s">
+        <v>31</v>
+      </c>
+      <c r="D322" t="s">
+        <v>211</v>
+      </c>
+      <c r="G322">
+        <v>5</v>
+      </c>
+      <c r="L322">
+        <v>1.19E-9</v>
+      </c>
+      <c r="M322">
+        <v>-0.7</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+      <c r="O322">
+        <v>7.1899999999999994E-27</v>
+      </c>
+      <c r="P322">
+        <v>-1.8</v>
+      </c>
+      <c r="Q322">
+        <v>0</v>
+      </c>
+      <c r="R322">
+        <v>0</v>
+      </c>
+      <c r="S322">
+        <v>0</v>
+      </c>
+      <c r="T322">
+        <v>0</v>
+      </c>
+      <c r="U322">
+        <v>0</v>
+      </c>
+      <c r="W322" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y322" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>91</v>
+      </c>
+      <c r="B323" t="s">
+        <v>52</v>
+      </c>
+      <c r="D323" t="s">
+        <v>241</v>
+      </c>
+      <c r="G323">
+        <v>5</v>
+      </c>
+      <c r="L323">
+        <v>2.8E-11</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+      <c r="O323">
+        <v>4.8600000000000002E-23</v>
+      </c>
+      <c r="P323">
+        <v>-3</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>0</v>
+      </c>
+      <c r="S323">
+        <v>0</v>
+      </c>
+      <c r="T323">
+        <v>0</v>
+      </c>
+      <c r="U323">
+        <v>0</v>
+      </c>
+      <c r="W323" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y323" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>91</v>
+      </c>
+      <c r="B324" t="s">
+        <v>52</v>
+      </c>
+      <c r="D324" t="s">
+        <v>242</v>
+      </c>
+      <c r="G324">
+        <v>5</v>
+      </c>
+      <c r="L324">
+        <v>7270000000000</v>
+      </c>
+      <c r="M324">
+        <v>-0.5</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+      <c r="O324">
+        <v>4.1700000000000001E-22</v>
+      </c>
+      <c r="P324">
+        <v>-3.9</v>
+      </c>
+      <c r="Q324">
+        <v>0</v>
+      </c>
+      <c r="R324">
+        <v>0</v>
+      </c>
+      <c r="S324">
+        <v>0</v>
+      </c>
+      <c r="T324">
+        <v>0</v>
+      </c>
+      <c r="U324">
+        <v>0</v>
+      </c>
+      <c r="W324" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y324" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>47</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B325" t="s">
+        <v>80</v>
+      </c>
+      <c r="D325" t="s">
+        <v>63</v>
+      </c>
+      <c r="E325" t="s">
+        <v>71</v>
+      </c>
+      <c r="G325">
+        <v>6</v>
+      </c>
+      <c r="H325">
+        <v>18</v>
+      </c>
+      <c r="I325">
+        <v>17</v>
+      </c>
+      <c r="J325">
+        <v>-0.5</v>
+      </c>
+      <c r="L325">
+        <v>1.62846954489706E-6</v>
+      </c>
+      <c r="M325">
+        <v>6.1</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+      <c r="O325">
+        <v>4.8957418118048899E-15</v>
+      </c>
+      <c r="P325">
+        <v>0.6</v>
+      </c>
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <v>0</v>
+      </c>
+      <c r="S325">
+        <v>0</v>
+      </c>
+      <c r="T325">
+        <v>0</v>
+      </c>
+      <c r="U325">
+        <v>0</v>
+      </c>
+      <c r="W325" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y325" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>47</v>
+      </c>
+      <c r="B326" t="s">
         <v>52</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D326" t="s">
         <v>63</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E326" t="s">
         <v>33</v>
       </c>
-      <c r="G321">
+      <c r="G326">
         <v>6</v>
       </c>
-      <c r="L321">
+      <c r="L326">
         <v>1.62846954489706E-6</v>
       </c>
-      <c r="M321">
+      <c r="M326">
         <v>6.1</v>
       </c>
-      <c r="N321">
-        <v>0</v>
-      </c>
-      <c r="O321">
+      <c r="N326">
+        <v>0</v>
+      </c>
+      <c r="O326">
         <v>4.8957418118048899E-15</v>
       </c>
-      <c r="P321">
+      <c r="P326">
         <v>0.6</v>
       </c>
-      <c r="Q321">
-        <v>0</v>
-      </c>
-      <c r="R321">
-        <v>0</v>
-      </c>
-      <c r="S321">
-        <v>0</v>
-      </c>
-      <c r="T321">
-        <v>0</v>
-      </c>
-      <c r="U321">
-        <v>0</v>
-      </c>
-      <c r="W321" t="s">
+      <c r="Q326">
+        <v>0</v>
+      </c>
+      <c r="R326">
+        <v>0</v>
+      </c>
+      <c r="S326">
+        <v>0</v>
+      </c>
+      <c r="T326">
+        <v>0</v>
+      </c>
+      <c r="U326">
+        <v>0</v>
+      </c>
+      <c r="W326" t="s">
         <v>224</v>
       </c>
-      <c r="Y321" t="s">
+      <c r="Y326" t="s">
         <v>42</v>
       </c>
     </row>
@@ -64971,11 +65292,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -65962,7 +66283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -65997,7 +66318,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -66032,7 +66353,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -66067,7 +66388,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -66102,7 +66423,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>415</v>
       </c>
@@ -66131,15 +66452,15 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="B38" t="s">
-        <v>444</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="D38" t="s">
         <v>256</v>
@@ -66147,25 +66468,28 @@
       <c r="E38" t="s">
         <v>398</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="4" t="s">
         <v>291</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>450</v>
       </c>
       <c r="B39" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
         <v>256</v>
@@ -66183,21 +66507,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
         <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>474</v>
+        <v>398</v>
       </c>
       <c r="F40" t="s">
         <v>291</v>
@@ -66208,8 +66532,101 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" t="s">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>256</v>
+      </c>
+      <c r="E41" t="s">
+        <v>398</v>
+      </c>
+      <c r="F41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B42" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" t="s">
+        <v>291</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>260</v>
+      </c>
+      <c r="P42">
+        <v>99</v>
+      </c>
+      <c r="Q42">
+        <v>98</v>
+      </c>
+      <c r="R42">
+        <v>-0.5</v>
+      </c>
+      <c r="V42" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" t="s">
+        <v>398</v>
+      </c>
+      <c r="F43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" t="s">
+        <v>291</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -66222,7 +66639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -67344,11 +67763,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y160"/>
+  <dimension ref="A1:Y171"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -70883,61 +71302,85 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="B80" t="s">
-        <v>463</v>
+      <c r="A80" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>464</v>
-      </c>
-      <c r="E80" t="s">
-        <v>47</v>
+        <v>542</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
+      <c r="H80">
+        <v>19</v>
+      </c>
+      <c r="I80">
+        <v>18</v>
+      </c>
+      <c r="J80">
+        <v>-0.5</v>
+      </c>
       <c r="L80" s="1">
-        <v>3.1999999999999998E-10</v>
+        <v>1.2E-15</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
         <v>0</v>
       </c>
       <c r="V80">
         <v>298</v>
       </c>
       <c r="W80" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="X80" s="4" t="s">
-        <v>466</v>
+        <v>87</v>
       </c>
       <c r="Y80" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>91</v>
+      <c r="A81" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="B81" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="D81" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
       <c r="L81" s="1">
-        <v>1.4E-11</v>
+        <v>3.1999999999999998E-10</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -70945,11 +71388,14 @@
       <c r="N81">
         <v>0</v>
       </c>
-      <c r="V81" t="s">
-        <v>467</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>447</v>
+      <c r="V81">
+        <v>298</v>
+      </c>
+      <c r="W81" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="X81" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="Y81" t="s">
         <v>418</v>
@@ -70957,34 +71403,34 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>456</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>444</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="E82" t="s">
-        <v>454</v>
+        <v>61</v>
       </c>
       <c r="G82">
         <v>2</v>
       </c>
       <c r="L82" s="1">
-        <v>1.2999999999999999E-12</v>
+        <v>1.4E-11</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>-330</v>
+        <v>0</v>
       </c>
       <c r="V82" t="s">
-        <v>175</v>
-      </c>
-      <c r="W82" t="s">
-        <v>452</v>
+        <v>467</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="Y82" t="s">
         <v>418</v>
@@ -70992,109 +71438,123 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
       </c>
-      <c r="C83" t="s">
-        <v>93</v>
-      </c>
       <c r="D83" t="s">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
-      </c>
-      <c r="G83" s="4">
+        <v>454</v>
+      </c>
+      <c r="G83">
         <v>2</v>
       </c>
       <c r="L83" s="1">
-        <v>4.2999999999999999E-13</v>
+        <v>1.2999999999999999E-12</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>298</v>
+        <v>-330</v>
+      </c>
+      <c r="V83" t="s">
+        <v>175</v>
       </c>
       <c r="W83" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="Y83" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-      <c r="L84" s="1"/>
+      <c r="A84" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>438</v>
+      </c>
+      <c r="E84" t="s">
+        <v>93</v>
+      </c>
+      <c r="G84" s="4">
+        <v>2</v>
+      </c>
+      <c r="L84" s="1">
+        <v>4.2999999999999999E-13</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>298</v>
+      </c>
+      <c r="W84" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="D85" t="s">
-        <v>478</v>
-      </c>
-      <c r="E85" t="s">
-        <v>33</v>
-      </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
-      <c r="L85" s="1">
-        <v>1.1000000000000001E-11</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>-1130</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="V85" t="s">
-        <v>522</v>
-      </c>
-      <c r="W85" t="s">
-        <v>523</v>
-      </c>
-      <c r="X85" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>418</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="10" t="s">
         <v>416</v>
       </c>
       <c r="D86" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="E86" t="s">
-        <v>71</v>
-      </c>
-      <c r="L86" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1.1000000000000001E-11</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>-1130</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="V86" t="s">
+        <v>522</v>
+      </c>
+      <c r="W86" t="s">
+        <v>523</v>
+      </c>
       <c r="X86" s="4" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
       <c r="Y86" t="s">
         <v>418</v>
@@ -71102,43 +71562,20 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>424</v>
+        <v>72</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="D87" t="s">
-        <v>478</v>
+        <v>415</v>
       </c>
       <c r="E87" t="s">
-        <v>69</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1.6900000000000001E-13</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>363</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="V87" t="s">
-        <v>480</v>
-      </c>
-      <c r="W87" t="s">
-        <v>482</v>
+        <v>71</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="X87" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="Y87" t="s">
         <v>418</v>
@@ -71146,28 +71583,28 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88" t="s">
-        <v>469</v>
+        <v>80</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="D88" t="s">
         <v>478</v>
       </c>
       <c r="E88" t="s">
-        <v>416</v>
+        <v>69</v>
       </c>
       <c r="G88">
         <v>2</v>
       </c>
       <c r="L88" s="1">
-        <v>1.4E-11</v>
+        <v>1.6900000000000001E-13</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -71178,11 +71615,11 @@
       <c r="Q88">
         <v>0</v>
       </c>
-      <c r="V88">
-        <v>295</v>
+      <c r="V88" t="s">
+        <v>480</v>
       </c>
       <c r="W88" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Y88" t="s">
         <v>418</v>
@@ -71192,41 +71629,41 @@
       <c r="A89" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>415</v>
+      <c r="B89" t="s">
+        <v>469</v>
       </c>
       <c r="D89" t="s">
         <v>478</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>416</v>
       </c>
       <c r="G89">
         <v>2</v>
       </c>
       <c r="L89" s="1">
-        <v>1.05E-10</v>
+        <v>1.4E-11</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
-      <c r="N89" s="1">
-        <v>-109</v>
+      <c r="N89">
+        <v>0</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
-      <c r="P89" s="1">
+      <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
-      <c r="V89" t="s">
-        <v>522</v>
+      <c r="V89">
+        <v>295</v>
       </c>
       <c r="W89" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="Y89" t="s">
         <v>418</v>
@@ -71240,22 +71677,22 @@
         <v>415</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="E90" t="s">
-        <v>416</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
       <c r="L90" s="1">
-        <v>6.7400000000000005E-10</v>
+        <v>1.05E-10</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90" s="1">
-        <v>-537</v>
+        <v>-109</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -71278,64 +71715,64 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>415</v>
       </c>
       <c r="D91" t="s">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="E91" t="s">
-        <v>81</v>
-      </c>
-      <c r="L91" s="1"/>
-      <c r="X91" s="4" t="s">
-        <v>484</v>
+        <v>416</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="L91" s="1">
+        <v>6.7400000000000005E-10</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>-537</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="V91" t="s">
+        <v>522</v>
+      </c>
+      <c r="W91" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D92" t="s">
         <v>478</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" t="s">
-        <v>80</v>
-      </c>
       <c r="E92" t="s">
-        <v>416</v>
-      </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
-      <c r="L92" s="1">
-        <v>3.7E-12</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92" s="1">
-        <v>-3520</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="V92" t="s">
-        <v>487</v>
-      </c>
-      <c r="W92" t="s">
-        <v>486</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>418</v>
+        <v>81</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="X92" s="4" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
@@ -71343,43 +71780,40 @@
         <v>478</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>485</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="E93" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="G93">
         <v>2</v>
       </c>
       <c r="L93" s="1">
-        <v>6E-11</v>
+        <v>3.7E-12</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93" s="1">
-        <v>0</v>
+        <v>-3520</v>
       </c>
       <c r="O93">
         <v>0</v>
       </c>
-      <c r="P93" s="1">
+      <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
-      <c r="V93">
-        <v>298</v>
+      <c r="V93" t="s">
+        <v>487</v>
       </c>
       <c r="W93" t="s">
-        <v>488</v>
-      </c>
-      <c r="X93" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Y93" t="s">
         <v>418</v>
@@ -71393,16 +71827,16 @@
         <v>485</v>
       </c>
       <c r="D94" t="s">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="E94" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="G94">
         <v>2</v>
       </c>
       <c r="L94" s="1">
-        <v>1.06E-10</v>
+        <v>6E-11</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -71419,13 +71853,14 @@
       <c r="Q94">
         <v>0</v>
       </c>
-      <c r="R94" s="1"/>
-      <c r="T94" s="1"/>
       <c r="V94">
         <v>298</v>
       </c>
       <c r="W94" t="s">
         <v>488</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="Y94" t="s">
         <v>418</v>
@@ -71436,10 +71871,10 @@
         <v>478</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="D95" t="s">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="E95" t="s">
         <v>416</v>
@@ -71448,13 +71883,13 @@
         <v>2</v>
       </c>
       <c r="L95" s="1">
-        <v>2.5400000000000001E-12</v>
+        <v>1.06E-10</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95" s="1">
-        <v>-3180</v>
+        <v>0</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -71467,11 +71902,11 @@
       </c>
       <c r="R95" s="1"/>
       <c r="T95" s="1"/>
-      <c r="V95" t="s">
-        <v>406</v>
+      <c r="V95">
+        <v>298</v>
       </c>
       <c r="W95" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="Y95" t="s">
         <v>418</v>
@@ -71482,25 +71917,25 @@
         <v>478</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>33</v>
+        <v>416</v>
       </c>
       <c r="D96" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="E96" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
       <c r="L96" s="1">
-        <v>1.4399999999999999E-10</v>
+        <v>2.5400000000000001E-12</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
       <c r="N96" s="1">
-        <v>-481</v>
+        <v>-3180</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -71511,14 +71946,13 @@
       <c r="Q96">
         <v>0</v>
       </c>
+      <c r="R96" s="1"/>
+      <c r="T96" s="1"/>
       <c r="V96" t="s">
-        <v>522</v>
+        <v>406</v>
       </c>
       <c r="W96" t="s">
-        <v>501</v>
-      </c>
-      <c r="X96" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Y96" t="s">
         <v>418</v>
@@ -71532,22 +71966,22 @@
         <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>415</v>
       </c>
       <c r="E97" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
       <c r="L97" s="1">
-        <v>1.3E-11</v>
+        <v>1.4399999999999999E-10</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97" s="1">
-        <v>-1575</v>
+        <v>-481</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -71559,10 +71993,10 @@
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="W97" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="X97" s="4" t="s">
         <v>479</v>
@@ -71576,10 +72010,10 @@
         <v>478</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E98" t="s">
         <v>416</v>
@@ -71588,28 +72022,31 @@
         <v>2</v>
       </c>
       <c r="L98" s="1">
-        <v>4.2800000000000003E-12</v>
+        <v>1.3E-11</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
-      <c r="N98">
-        <v>-767</v>
+      <c r="N98" s="1">
+        <v>-1575</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
-      <c r="P98">
+      <c r="P98" s="1">
         <v>0</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>525</v>
-      </c>
-      <c r="W98" s="3" t="s">
-        <v>526</v>
+        <v>500</v>
+      </c>
+      <c r="W98" t="s">
+        <v>499</v>
+      </c>
+      <c r="X98" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="Y98" t="s">
         <v>418</v>
@@ -71619,18 +72056,44 @@
       <c r="A99" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>81</v>
+      <c r="B99" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="E99" t="s">
-        <v>83</v>
-      </c>
-      <c r="L99" s="1"/>
-      <c r="X99" s="4" t="s">
-        <v>484</v>
+        <v>416</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="L99" s="1">
+        <v>4.2800000000000003E-12</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>-767</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="V99" t="s">
+        <v>525</v>
+      </c>
+      <c r="W99" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
@@ -71638,74 +72101,44 @@
         <v>478</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D100" t="s">
         <v>415</v>
       </c>
       <c r="E100" t="s">
-        <v>72</v>
-      </c>
-      <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1">
-        <v>6.8400000000000004E-9</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100" s="1">
-        <v>-27400</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="V100" t="s">
-        <v>493</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>492</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="L100" s="1"/>
       <c r="X100" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s">
         <v>415</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" t="s">
-        <v>76</v>
-      </c>
       <c r="E101" t="s">
-        <v>416</v>
+        <v>72</v>
       </c>
       <c r="G101">
         <v>2</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1">
-        <v>8.1249999999999995E-18</v>
+        <v>6.8400000000000004E-9</v>
       </c>
       <c r="M101">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="N101" s="1">
-        <v>300</v>
+        <v>-27400</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -71717,77 +72150,244 @@
         <v>0</v>
       </c>
       <c r="V101" t="s">
-        <v>176</v>
+        <v>493</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
+      </c>
+      <c r="X101" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="Y101" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
+      <c r="A102" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" t="s">
+        <v>416</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
       <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="W102" s="3"/>
+      <c r="L102" s="1">
+        <v>8.1249999999999995E-18</v>
+      </c>
+      <c r="M102">
+        <v>1.85</v>
+      </c>
+      <c r="N102" s="1">
+        <v>300</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="V102" t="s">
+        <v>176</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="W103" s="3"/>
+      <c r="A103" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" t="s">
+        <v>478</v>
+      </c>
+      <c r="E103" t="s">
+        <v>69</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>34</v>
+      </c>
+      <c r="I103">
+        <v>33</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1.7999999999999999E-11</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>169</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103" t="s">
+        <v>427</v>
+      </c>
+      <c r="W103" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="W104" s="3"/>
+      <c r="A104" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D104" t="s">
+        <v>478</v>
+      </c>
+      <c r="E104" t="s">
+        <v>52</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="L104" s="1">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>-4800</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104" s="1">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104" s="1">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104" t="s">
+        <v>175</v>
+      </c>
+      <c r="W104" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C105" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="D105" t="s">
-        <v>469</v>
+        <v>415</v>
       </c>
       <c r="E105" t="s">
-        <v>93</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K105" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
       <c r="L105" s="1">
-        <v>6.1499999999999997E-34</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105" s="1">
-        <v>906</v>
-      </c>
-      <c r="P105" s="1"/>
+        <v>-4800</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105" s="1">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
       <c r="V105" t="s">
-        <v>494</v>
-      </c>
-      <c r="W105" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="X105" s="4" t="s">
-        <v>497</v>
+        <v>175</v>
+      </c>
+      <c r="W105" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y105" t="s">
         <v>418</v>
@@ -71795,196 +72395,128 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" t="s">
         <v>416</v>
       </c>
-      <c r="D106" t="s">
-        <v>469</v>
-      </c>
-      <c r="E106" t="s">
-        <v>31</v>
-      </c>
-      <c r="G106">
+      <c r="G106" s="8">
         <v>2</v>
       </c>
-      <c r="K106" s="1"/>
+      <c r="H106">
+        <v>18</v>
+      </c>
+      <c r="I106">
+        <v>17</v>
+      </c>
       <c r="L106" s="1">
-        <v>1.7400000000000001E-12</v>
+        <v>1.7999999999999999E-11</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="N106" s="1">
-        <v>-4595</v>
-      </c>
-      <c r="P106" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
       <c r="V106" t="s">
-        <v>527</v>
-      </c>
-      <c r="W106" s="3" t="s">
-        <v>526</v>
+        <v>427</v>
+      </c>
+      <c r="W106" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y106" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B107" t="s">
-        <v>424</v>
-      </c>
-      <c r="D107" t="s">
-        <v>469</v>
-      </c>
-      <c r="E107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G107">
-        <v>2</v>
-      </c>
+      <c r="A107" s="2"/>
       <c r="K107" s="1"/>
-      <c r="L107" s="1">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107" s="1">
-        <v>-1590</v>
-      </c>
+      <c r="L107" s="1"/>
+      <c r="N107" s="1"/>
       <c r="P107" s="1"/>
-      <c r="V107" t="s">
-        <v>528</v>
-      </c>
-      <c r="W107" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>418</v>
-      </c>
+      <c r="W107" s="3"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B108" t="s">
-        <v>416</v>
-      </c>
-      <c r="D108" t="s">
-        <v>469</v>
-      </c>
-      <c r="E108" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
+      <c r="A108" s="2"/>
       <c r="K108" s="1"/>
-      <c r="L108" s="1">
-        <v>1.66E-7</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108" s="1">
-        <v>2394</v>
-      </c>
+      <c r="L108" s="1"/>
+      <c r="N108" s="1"/>
       <c r="P108" s="1"/>
-      <c r="V108" t="s">
-        <v>529</v>
-      </c>
-      <c r="W108" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>418</v>
-      </c>
+      <c r="W108" s="3"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B109" t="s">
-        <v>416</v>
-      </c>
-      <c r="C109" t="s">
-        <v>56</v>
-      </c>
-      <c r="D109" t="s">
-        <v>469</v>
-      </c>
-      <c r="E109" t="s">
-        <v>56</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>442</v>
-      </c>
+      <c r="A109" s="2"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="1">
-        <v>8.5800000000000003E-34</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109" s="1">
-        <v>850</v>
-      </c>
+      <c r="L109" s="1"/>
+      <c r="N109" s="1"/>
       <c r="P109" s="1"/>
-      <c r="V109" t="s">
-        <v>531</v>
-      </c>
-      <c r="W109" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="X109" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>418</v>
-      </c>
+      <c r="W109" s="3"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>416</v>
       </c>
       <c r="C110" t="s">
-        <v>412</v>
+        <v>93</v>
       </c>
       <c r="D110" t="s">
         <v>469</v>
       </c>
       <c r="E110" t="s">
-        <v>412</v>
+        <v>93</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>442</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1">
-        <v>-5.1699999999999999E-33</v>
+        <v>6.1499999999999997E-34</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="N110" s="1">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="P110" s="1"/>
-      <c r="V110">
-        <v>296</v>
+      <c r="V110" t="s">
+        <v>494</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="X110" s="4" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="Y110" t="s">
         <v>418</v>
@@ -71992,7 +72524,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B111" t="s">
         <v>416</v>
@@ -72001,24 +72533,24 @@
         <v>469</v>
       </c>
       <c r="E111" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>2</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1">
-        <v>2.16E-9</v>
+        <v>1.7400000000000001E-12</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="N111" s="1">
-        <v>167</v>
+        <v>-4595</v>
       </c>
       <c r="P111" s="1"/>
       <c r="V111" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="W111" s="3" t="s">
         <v>526</v>
@@ -72029,36 +72561,36 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="B112" t="s">
-        <v>485</v>
+        <v>424</v>
       </c>
       <c r="D112" t="s">
         <v>469</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="G112">
         <v>2</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1">
-        <v>2.1899999999999999E-10</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
       <c r="N112" s="1">
-        <v>0</v>
+        <v>-1590</v>
       </c>
       <c r="P112" s="1"/>
-      <c r="V112">
-        <v>300</v>
+      <c r="V112" t="s">
+        <v>528</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
       <c r="Y112" t="s">
         <v>418</v>
@@ -72066,36 +72598,36 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B113" t="s">
+        <v>416</v>
+      </c>
+      <c r="D113" t="s">
         <v>469</v>
       </c>
-      <c r="B113" t="s">
-        <v>485</v>
-      </c>
-      <c r="D113" t="s">
-        <v>424</v>
-      </c>
       <c r="E113" t="s">
-        <v>416</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>2</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1">
-        <v>1.2899999999999999E-10</v>
+        <v>1.66E-7</v>
       </c>
       <c r="M113">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="N113" s="1">
-        <v>45</v>
+        <v>2394</v>
       </c>
       <c r="P113" s="1"/>
       <c r="V113" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="Y113" t="s">
         <v>418</v>
@@ -72103,36 +72635,42 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B114" t="s">
+        <v>416</v>
+      </c>
+      <c r="C114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" t="s">
         <v>469</v>
       </c>
-      <c r="B114" t="s">
-        <v>31</v>
-      </c>
-      <c r="D114" t="s">
-        <v>424</v>
-      </c>
       <c r="E114" t="s">
-        <v>416</v>
-      </c>
-      <c r="G114">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1">
-        <v>4.1700000000000002E-12</v>
+        <v>8.5800000000000003E-34</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
       <c r="N114" s="1">
-        <v>137</v>
+        <v>850</v>
       </c>
       <c r="P114" s="1"/>
       <c r="V114" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
+      </c>
+      <c r="X114" s="4" t="s">
+        <v>540</v>
       </c>
       <c r="Y114" t="s">
         <v>418</v>
@@ -72140,36 +72678,42 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115" t="s">
+        <v>416</v>
+      </c>
+      <c r="C115" t="s">
+        <v>412</v>
+      </c>
+      <c r="D115" t="s">
         <v>469</v>
       </c>
-      <c r="B115" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" t="s">
-        <v>415</v>
-      </c>
       <c r="E115" t="s">
-        <v>416</v>
-      </c>
-      <c r="G115">
-        <v>2</v>
+        <v>412</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1">
-        <v>1.43E-10</v>
+        <v>-5.1699999999999999E-33</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115" s="1">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="P115" s="1"/>
-      <c r="V115" t="s">
-        <v>529</v>
+      <c r="V115">
+        <v>296</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
+      </c>
+      <c r="X115" s="4" t="s">
+        <v>540</v>
       </c>
       <c r="Y115" t="s">
         <v>418</v>
@@ -72177,83 +72721,228 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B116" t="s">
+        <v>416</v>
+      </c>
+      <c r="D116" t="s">
         <v>469</v>
       </c>
-      <c r="B116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>495</v>
-      </c>
       <c r="E116" t="s">
-        <v>416</v>
+        <v>47</v>
       </c>
       <c r="G116">
         <v>2</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1">
-        <v>4.9999999999999997E-12</v>
+        <v>2.16E-9</v>
       </c>
       <c r="M116">
         <v>0</v>
       </c>
       <c r="N116" s="1">
-        <v>-2900</v>
+        <v>167</v>
       </c>
       <c r="P116" s="1"/>
       <c r="V116" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="X116" s="4" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="Y116" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
+      <c r="A117" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B117" t="s">
+        <v>485</v>
+      </c>
+      <c r="D117" t="s">
+        <v>469</v>
+      </c>
+      <c r="E117" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
       <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="N117" s="1"/>
+      <c r="L117" s="1">
+        <v>2.1899999999999999E-10</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0</v>
+      </c>
       <c r="P117" s="1"/>
-      <c r="W117" s="3"/>
+      <c r="V117">
+        <v>300</v>
+      </c>
+      <c r="W117" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
+      <c r="A118" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B118" t="s">
+        <v>485</v>
+      </c>
+      <c r="D118" t="s">
+        <v>424</v>
+      </c>
+      <c r="E118" t="s">
+        <v>416</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
       <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="N118" s="1"/>
+      <c r="L118" s="1">
+        <v>1.2899999999999999E-10</v>
+      </c>
+      <c r="M118">
+        <v>-0.19</v>
+      </c>
+      <c r="N118" s="1">
+        <v>45</v>
+      </c>
       <c r="P118" s="1"/>
-      <c r="W118" s="3"/>
+      <c r="V118" t="s">
+        <v>537</v>
+      </c>
+      <c r="W118" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" t="s">
+        <v>424</v>
+      </c>
+      <c r="E119" t="s">
+        <v>416</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
       <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="N119" s="1"/>
+      <c r="L119" s="1">
+        <v>4.1700000000000002E-12</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>137</v>
+      </c>
       <c r="P119" s="1"/>
-      <c r="W119" s="3"/>
+      <c r="V119" t="s">
+        <v>527</v>
+      </c>
+      <c r="W119" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" t="s">
+        <v>415</v>
+      </c>
+      <c r="E120" t="s">
+        <v>416</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
       <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="N120" s="1"/>
+      <c r="L120" s="1">
+        <v>1.43E-10</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" s="1">
+        <v>590</v>
+      </c>
       <c r="P120" s="1"/>
-      <c r="W120" s="3"/>
+      <c r="V120" t="s">
+        <v>529</v>
+      </c>
+      <c r="W120" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
+      <c r="A121" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E121" t="s">
+        <v>416</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
       <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="N121" s="1"/>
+      <c r="L121" s="1">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" s="1">
+        <v>-2900</v>
+      </c>
       <c r="P121" s="1"/>
-      <c r="W121" s="3"/>
+      <c r="V121" t="s">
+        <v>539</v>
+      </c>
+      <c r="W121" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="X121" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
@@ -72262,9 +72951,6 @@
       <c r="N122" s="1"/>
       <c r="P122" s="1"/>
       <c r="W122" s="3"/>
-      <c r="Y122" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
@@ -72275,107 +72961,65 @@
       <c r="W123" s="3"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="H124" t="s">
-        <v>502</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="W124" s="3"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B125" t="s">
-        <v>443</v>
-      </c>
-      <c r="C125" t="s">
-        <v>31</v>
-      </c>
-      <c r="D125" t="s">
-        <v>256</v>
-      </c>
-      <c r="E125" t="s">
-        <v>474</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="W125" s="3"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B126" t="s">
-        <v>416</v>
-      </c>
-      <c r="C126" t="s">
-        <v>416</v>
-      </c>
-      <c r="D126" t="s">
-        <v>256</v>
-      </c>
-      <c r="E126" t="s">
-        <v>474</v>
-      </c>
+      <c r="A126" s="2"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="W126" s="3"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B127" t="s">
-        <v>47</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D127" t="s">
-        <v>256</v>
-      </c>
-      <c r="E127" t="s">
-        <v>474</v>
+      <c r="A127" s="2"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="W127" s="3"/>
+      <c r="Y127" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B128" t="s">
-        <v>471</v>
-      </c>
-      <c r="C128" t="s">
-        <v>416</v>
-      </c>
-      <c r="D128" t="s">
-        <v>256</v>
-      </c>
-      <c r="E128" t="s">
-        <v>474</v>
-      </c>
+      <c r="A128" s="2"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="W128" s="3"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B129" t="s">
-        <v>52</v>
-      </c>
-      <c r="C129" t="s">
-        <v>416</v>
-      </c>
-      <c r="D129" t="s">
-        <v>256</v>
-      </c>
-      <c r="E129" t="s">
-        <v>474</v>
+        <v>468</v>
+      </c>
+      <c r="H129" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>443</v>
       </c>
       <c r="C130" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="D130" t="s">
         <v>256</v>
@@ -72386,13 +73030,13 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>416</v>
       </c>
       <c r="C131" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D131" t="s">
         <v>256</v>
@@ -72403,13 +73047,13 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="B132" t="s">
-        <v>416</v>
-      </c>
-      <c r="C132" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D132" t="s">
         <v>256</v>
@@ -72417,25 +73061,13 @@
       <c r="E132" t="s">
         <v>474</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>33</v>
+        <v>470</v>
+      </c>
+      <c r="B133" t="s">
+        <v>471</v>
       </c>
       <c r="C133" t="s">
         <v>416</v>
@@ -72446,28 +73078,16 @@
       <c r="E133" t="s">
         <v>474</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>444</v>
+        <v>472</v>
+      </c>
+      <c r="B134" t="s">
+        <v>52</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="D134" t="s">
         <v>256</v>
@@ -72475,25 +73095,16 @@
       <c r="E134" t="s">
         <v>474</v>
       </c>
-      <c r="F134" t="s">
-        <v>291</v>
-      </c>
-      <c r="G134" t="s">
-        <v>291</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>443</v>
+        <v>473</v>
+      </c>
+      <c r="B135" t="s">
+        <v>61</v>
       </c>
       <c r="C135" t="s">
-        <v>69</v>
+        <v>416</v>
       </c>
       <c r="D135" t="s">
         <v>256</v>
@@ -72501,164 +73112,513 @@
       <c r="E135" t="s">
         <v>474</v>
       </c>
-      <c r="F135" t="s">
-        <v>291</v>
-      </c>
-      <c r="G135" t="s">
-        <v>291</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B136" t="s">
-        <v>503</v>
+        <v>63</v>
+      </c>
+      <c r="C136" t="s">
+        <v>424</v>
+      </c>
+      <c r="D136" t="s">
+        <v>256</v>
+      </c>
+      <c r="E136" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="B137" t="s">
-        <v>504</v>
+        <v>416</v>
+      </c>
+      <c r="C137" t="s">
+        <v>31</v>
+      </c>
+      <c r="D137" t="s">
+        <v>256</v>
+      </c>
+      <c r="E137" t="s">
+        <v>474</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" t="s">
+        <v>416</v>
+      </c>
+      <c r="D138" t="s">
+        <v>256</v>
+      </c>
+      <c r="E138" t="s">
+        <v>474</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B139" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" t="s">
+        <v>416</v>
+      </c>
+      <c r="D139" t="s">
+        <v>256</v>
+      </c>
+      <c r="E139" t="s">
+        <v>474</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D140" t="s">
+        <v>256</v>
+      </c>
+      <c r="E140" t="s">
+        <v>474</v>
+      </c>
+      <c r="F140" t="s">
+        <v>291</v>
+      </c>
+      <c r="G140" t="s">
+        <v>291</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C141" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" t="s">
+        <v>256</v>
+      </c>
+      <c r="E141" t="s">
+        <v>474</v>
+      </c>
+      <c r="F141" t="s">
+        <v>291</v>
+      </c>
+      <c r="G141" t="s">
+        <v>291</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B142" t="s">
+        <v>503</v>
+      </c>
+      <c r="F142" t="s">
+        <v>291</v>
+      </c>
+      <c r="G142" t="s">
+        <v>291</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B143" t="s">
+        <v>504</v>
+      </c>
+      <c r="F143" t="s">
+        <v>291</v>
+      </c>
+      <c r="G143" t="s">
+        <v>291</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B144" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C144" t="s">
         <v>79</v>
       </c>
-      <c r="D138" t="s">
-        <v>256</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="D144" t="s">
+        <v>256</v>
+      </c>
+      <c r="E144" t="s">
+        <v>474</v>
+      </c>
+      <c r="F144" t="s">
+        <v>291</v>
+      </c>
+      <c r="G144" t="s">
+        <v>291</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F138" t="s">
+      <c r="B145" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C145" t="s">
+        <v>76</v>
+      </c>
+      <c r="D145" t="s">
+        <v>256</v>
+      </c>
+      <c r="E145" t="s">
+        <v>398</v>
+      </c>
+      <c r="F145" t="s">
+        <v>291</v>
+      </c>
+      <c r="G145" t="s">
+        <v>291</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145" t="s">
+        <v>260</v>
+      </c>
+      <c r="P145">
+        <v>99</v>
+      </c>
+      <c r="Q145">
+        <v>98</v>
+      </c>
+      <c r="R145">
+        <v>-0.5</v>
+      </c>
+      <c r="V145" t="s">
         <v>543</v>
       </c>
-      <c r="G138" t="s">
-        <v>543</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="11" t="s">
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C146" t="s">
+        <v>31</v>
+      </c>
+      <c r="D146" t="s">
+        <v>256</v>
+      </c>
+      <c r="E146" t="s">
+        <v>474</v>
+      </c>
+      <c r="F146" t="s">
+        <v>291</v>
+      </c>
+      <c r="G146" t="s">
+        <v>291</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A149" s="11" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="11" t="s">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="11" t="s">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="11" t="s">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A153" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="11" t="s">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A154" s="11" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="11" t="s">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A155" s="11" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="11" t="s">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A156" s="11" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11" t="s">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A157" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="11" t="s">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="11" t="s">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A159" s="11" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="11" t="s">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="11" t="s">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A161" s="11" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="11" t="s">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A162" s="11" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="11" t="s">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A163" s="11" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="11" t="s">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A164" s="11" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="11" t="s">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A165" s="11" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="11" t="s">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A166" s="11" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="11" t="s">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A167" s="11" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="11" t="s">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A168" s="11" t="s">
         <v>535</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C170" s="12"/>
+      <c r="D170" t="s">
+        <v>478</v>
+      </c>
+      <c r="E170" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170">
+        <v>2</v>
+      </c>
+      <c r="L170" s="1">
+        <v>1.05E-10</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170" s="1">
+        <v>-109</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170" t="s">
+        <v>522</v>
+      </c>
+      <c r="W170" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C171" s="4"/>
+      <c r="D171" t="s">
+        <v>72</v>
+      </c>
+      <c r="E171" t="s">
+        <v>416</v>
+      </c>
+      <c r="G171">
+        <v>2</v>
+      </c>
+      <c r="L171" s="1">
+        <v>6.74E-12</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" s="1">
+        <v>-537</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171" t="s">
+        <v>522</v>
+      </c>
+      <c r="W171" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
+++ b/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01a63ffdd6170d0a/Desktop/copy REU Research/bluejay/Venus-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8477E7-B1A7-40DE-8AD1-ECE543926507}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94D3D621-BFC0-4D2B-B7EE-353EFA6FB0F7}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="900" windowWidth="21528" windowHeight="11832" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="900" windowWidth="21528" windowHeight="11832" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ion reactions" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9411" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9435" uniqueCount="545">
   <si>
     <t>R1</t>
   </si>
@@ -1663,6 +1663,9 @@
   <si>
     <t>mass scaling</t>
   </si>
+  <si>
+    <t>This is not mass scaleing whitch I did use in the actual model</t>
+  </si>
 </sst>
 </file>
 
@@ -46700,9 +46703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y326"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G294" sqref="G294"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A281" sqref="A281:XFD281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -61748,6 +61751,7 @@
       <c r="B264" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="C264" s="4"/>
       <c r="D264" t="s">
         <v>415</v>
       </c>
@@ -61764,7 +61768,7 @@
         <v>0</v>
       </c>
       <c r="N264" s="1">
-        <v>2863</v>
+        <v>-2863</v>
       </c>
       <c r="O264">
         <v>0</v>
@@ -63531,25 +63535,25 @@
         <v>478</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>416</v>
+        <v>33</v>
       </c>
       <c r="D295" t="s">
-        <v>478</v>
+        <v>415</v>
       </c>
       <c r="E295" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="G295">
         <v>2</v>
       </c>
       <c r="L295" s="1">
-        <v>2.5400000000000001E-12</v>
+        <v>1.4399999999999999E-10</v>
       </c>
       <c r="M295">
         <v>0</v>
       </c>
       <c r="N295" s="1">
-        <v>-3180</v>
+        <v>-481</v>
       </c>
       <c r="O295">
         <v>0</v>
@@ -63573,10 +63577,13 @@
         <v>0</v>
       </c>
       <c r="V295" t="s">
-        <v>406</v>
+        <v>522</v>
       </c>
       <c r="W295" t="s">
-        <v>483</v>
+        <v>501</v>
+      </c>
+      <c r="X295" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="Y295" t="s">
         <v>418</v>
@@ -63590,22 +63597,22 @@
         <v>33</v>
       </c>
       <c r="D296" t="s">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="E296" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="G296">
         <v>2</v>
       </c>
       <c r="L296" s="1">
-        <v>1.4399999999999999E-10</v>
+        <v>1.3E-11</v>
       </c>
       <c r="M296">
         <v>0</v>
       </c>
       <c r="N296" s="1">
-        <v>-481</v>
+        <v>-1575</v>
       </c>
       <c r="O296">
         <v>0</v>
@@ -63629,10 +63636,10 @@
         <v>0</v>
       </c>
       <c r="V296" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="W296" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="X296" s="4" t="s">
         <v>479</v>
@@ -63646,10 +63653,10 @@
         <v>478</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="D297" t="s">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="E297" t="s">
         <v>416</v>
@@ -63658,18 +63665,18 @@
         <v>2</v>
       </c>
       <c r="L297" s="1">
-        <v>3.7E-12</v>
+        <v>2.5400000000000001E-12</v>
       </c>
       <c r="M297">
         <v>0</v>
       </c>
       <c r="N297" s="1">
-        <v>-3520</v>
+        <v>-3180</v>
       </c>
       <c r="O297">
         <v>0</v>
       </c>
-      <c r="P297">
+      <c r="P297" s="1">
         <v>0</v>
       </c>
       <c r="Q297">
@@ -63688,10 +63695,10 @@
         <v>0</v>
       </c>
       <c r="V297" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="W297" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Y297" t="s">
         <v>418</v>
@@ -63702,30 +63709,30 @@
         <v>478</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>485</v>
+        <v>31</v>
       </c>
       <c r="D298" t="s">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="E298" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="G298">
         <v>2</v>
       </c>
       <c r="L298" s="1">
-        <v>6E-11</v>
+        <v>3.7E-12</v>
       </c>
       <c r="M298">
         <v>0</v>
       </c>
       <c r="N298" s="1">
-        <v>0</v>
+        <v>-3520</v>
       </c>
       <c r="O298">
         <v>0</v>
       </c>
-      <c r="P298" s="1">
+      <c r="P298">
         <v>0</v>
       </c>
       <c r="Q298">
@@ -63743,14 +63750,11 @@
       <c r="U298">
         <v>0</v>
       </c>
-      <c r="V298">
-        <v>298</v>
+      <c r="V298" t="s">
+        <v>487</v>
       </c>
       <c r="W298" t="s">
-        <v>488</v>
-      </c>
-      <c r="X298" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Y298" t="s">
         <v>418</v>
@@ -63764,16 +63768,16 @@
         <v>485</v>
       </c>
       <c r="D299" t="s">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="E299" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="G299">
         <v>2</v>
       </c>
       <c r="L299" s="1">
-        <v>1.06E-10</v>
+        <v>6E-11</v>
       </c>
       <c r="M299">
         <v>0</v>
@@ -63807,6 +63811,9 @@
       </c>
       <c r="W299" t="s">
         <v>488</v>
+      </c>
+      <c r="X299" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="Y299" t="s">
         <v>418</v>
@@ -63817,10 +63824,10 @@
         <v>478</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>33</v>
+        <v>485</v>
       </c>
       <c r="D300" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E300" t="s">
         <v>416</v>
@@ -63829,13 +63836,13 @@
         <v>2</v>
       </c>
       <c r="L300" s="1">
-        <v>1.3E-11</v>
+        <v>1.06E-10</v>
       </c>
       <c r="M300">
         <v>0</v>
       </c>
       <c r="N300" s="1">
-        <v>-1575</v>
+        <v>0</v>
       </c>
       <c r="O300">
         <v>0</v>
@@ -63858,14 +63865,11 @@
       <c r="U300">
         <v>0</v>
       </c>
-      <c r="V300" t="s">
-        <v>500</v>
+      <c r="V300">
+        <v>298</v>
       </c>
       <c r="W300" t="s">
-        <v>499</v>
-      </c>
-      <c r="X300" s="4" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="Y300" t="s">
         <v>418</v>
@@ -65295,8 +65299,8 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -67763,11 +67767,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y171"/>
+  <dimension ref="A1:Y175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H176" sqref="H176"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A175" sqref="A175:XFD175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -73617,7 +73621,189 @@
       <c r="W171" t="s">
         <v>501</v>
       </c>
+      <c r="X171" t="s">
+        <v>544</v>
+      </c>
       <c r="Y171" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="P172" s="1"/>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" t="s">
+        <v>415</v>
+      </c>
+      <c r="E173" t="s">
+        <v>71</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="L173" s="1">
+        <v>1.4399999999999999E-10</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173" s="1">
+        <v>-481</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173" t="s">
+        <v>522</v>
+      </c>
+      <c r="W173" t="s">
+        <v>501</v>
+      </c>
+      <c r="X173" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D174" t="s">
+        <v>72</v>
+      </c>
+      <c r="E174" t="s">
+        <v>416</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
+      </c>
+      <c r="L174" s="1">
+        <v>1.3E-11</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" s="1">
+        <v>-1575</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174" t="s">
+        <v>500</v>
+      </c>
+      <c r="W174" t="s">
+        <v>499</v>
+      </c>
+      <c r="X174" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D175" t="s">
+        <v>450</v>
+      </c>
+      <c r="E175" t="s">
+        <v>52</v>
+      </c>
+      <c r="G175" s="4">
+        <v>2</v>
+      </c>
+      <c r="L175" s="1">
+        <v>2.8E-11</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="W175" t="s">
+        <v>512</v>
+      </c>
+      <c r="X175" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y175" t="s">
         <v>418</v>
       </c>
     </row>
@@ -73631,7 +73817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>

--- a/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
+++ b/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01a63ffdd6170d0a/Desktop/copy REU Research/bluejay/Venus-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94D3D621-BFC0-4D2B-B7EE-353EFA6FB0F7}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5072E0A-A865-46C2-BD4F-868AE022A8D7}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="900" windowWidth="21528" windowHeight="11832" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="900" windowWidth="21528" windowHeight="11832" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ion reactions" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9435" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9449" uniqueCount="545">
   <si>
     <t>R1</t>
   </si>
@@ -46701,11 +46701,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y326"/>
+  <dimension ref="A1:Y327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A281" sqref="A281:XFD281"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F289" sqref="F289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -63111,6 +63111,7 @@
       <c r="B288" s="10" t="s">
         <v>416</v>
       </c>
+      <c r="C288" s="12"/>
       <c r="D288" t="s">
         <v>478</v>
       </c>
@@ -63120,14 +63121,20 @@
       <c r="G288">
         <v>2</v>
       </c>
+      <c r="H288">
+        <v>3</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
       <c r="L288" s="1">
-        <v>1.1000000000000001E-11</v>
+        <v>3.9000000000000001E-11</v>
       </c>
       <c r="M288">
         <v>0</v>
       </c>
-      <c r="N288">
-        <v>-1130</v>
+      <c r="N288" s="1">
+        <v>-2310</v>
       </c>
       <c r="O288">
         <v>0</v>
@@ -63151,13 +63158,10 @@
         <v>0</v>
       </c>
       <c r="V288" t="s">
-        <v>522</v>
-      </c>
-      <c r="W288" t="s">
-        <v>523</v>
-      </c>
-      <c r="X288" s="4" t="s">
-        <v>479</v>
+        <v>423</v>
+      </c>
+      <c r="W288" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="Y288" t="s">
         <v>418</v>
@@ -63165,34 +63169,35 @@
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B289" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B289" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="C289" s="12"/>
       <c r="D289" t="s">
-        <v>478</v>
+        <v>415</v>
       </c>
       <c r="E289" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G289">
         <v>2</v>
       </c>
       <c r="H289">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I289">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="L289" s="1">
-        <v>1.7999999999999999E-11</v>
+        <v>3.9000000000000001E-11</v>
       </c>
       <c r="M289">
         <v>0</v>
       </c>
       <c r="N289" s="1">
-        <v>169</v>
+        <v>-2310</v>
       </c>
       <c r="O289">
         <v>0</v>
@@ -63216,9 +63221,9 @@
         <v>0</v>
       </c>
       <c r="V289" t="s">
-        <v>427</v>
-      </c>
-      <c r="W289" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="W289" s="3" t="s">
         <v>87</v>
       </c>
       <c r="Y289" t="s">
@@ -63227,58 +63232,58 @@
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>72</v>
+        <v>416</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>424</v>
+        <v>83</v>
       </c>
       <c r="D290" t="s">
         <v>478</v>
       </c>
       <c r="E290" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G290">
         <v>2</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I290">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="L290" s="1">
-        <v>9.9999999999999998E-13</v>
+        <v>1.7999999999999999E-11</v>
       </c>
       <c r="M290">
         <v>0</v>
       </c>
       <c r="N290" s="1">
-        <v>-4800</v>
+        <v>169</v>
       </c>
       <c r="O290">
         <v>0</v>
       </c>
-      <c r="P290" s="1">
+      <c r="P290">
         <v>0</v>
       </c>
       <c r="Q290">
         <v>0</v>
       </c>
-      <c r="R290" s="1">
+      <c r="R290">
         <v>0</v>
       </c>
       <c r="S290">
         <v>0</v>
       </c>
-      <c r="T290" s="1">
+      <c r="T290">
         <v>0</v>
       </c>
       <c r="U290">
         <v>0</v>
       </c>
       <c r="V290" t="s">
-        <v>175</v>
+        <v>427</v>
       </c>
       <c r="W290" s="5" t="s">
         <v>87</v>
@@ -63295,10 +63300,10 @@
         <v>424</v>
       </c>
       <c r="D291" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="E291" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G291">
         <v>2</v>
@@ -63351,58 +63356,58 @@
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>424</v>
       </c>
       <c r="D292" t="s">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="E292" t="s">
-        <v>416</v>
-      </c>
-      <c r="G292" s="8">
+        <v>80</v>
+      </c>
+      <c r="G292">
         <v>2</v>
       </c>
       <c r="H292">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I292">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L292" s="1">
-        <v>1.7999999999999999E-11</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="M292">
         <v>0</v>
       </c>
       <c r="N292" s="1">
-        <v>169</v>
+        <v>-4800</v>
       </c>
       <c r="O292">
         <v>0</v>
       </c>
-      <c r="P292">
+      <c r="P292" s="1">
         <v>0</v>
       </c>
       <c r="Q292">
         <v>0</v>
       </c>
-      <c r="R292">
+      <c r="R292" s="1">
         <v>0</v>
       </c>
       <c r="S292">
         <v>0</v>
       </c>
-      <c r="T292">
+      <c r="T292" s="1">
         <v>0</v>
       </c>
       <c r="U292">
         <v>0</v>
       </c>
       <c r="V292" t="s">
-        <v>427</v>
+        <v>175</v>
       </c>
       <c r="W292" s="5" t="s">
         <v>87</v>
@@ -63415,26 +63420,32 @@
       <c r="A293" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="6" t="s">
         <v>424</v>
       </c>
       <c r="D293" t="s">
-        <v>478</v>
+        <v>83</v>
       </c>
       <c r="E293" t="s">
-        <v>69</v>
-      </c>
-      <c r="G293">
+        <v>416</v>
+      </c>
+      <c r="G293" s="8">
         <v>2</v>
       </c>
+      <c r="H293">
+        <v>18</v>
+      </c>
+      <c r="I293">
+        <v>17</v>
+      </c>
       <c r="L293" s="1">
-        <v>1.6900000000000001E-13</v>
+        <v>1.7999999999999999E-11</v>
       </c>
       <c r="M293">
         <v>0</v>
       </c>
-      <c r="N293">
-        <v>363</v>
+      <c r="N293" s="1">
+        <v>169</v>
       </c>
       <c r="O293">
         <v>0</v>
@@ -63458,10 +63469,10 @@
         <v>0</v>
       </c>
       <c r="V293" t="s">
-        <v>480</v>
-      </c>
-      <c r="W293" t="s">
-        <v>482</v>
+        <v>427</v>
+      </c>
+      <c r="W293" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y293" t="s">
         <v>418</v>
@@ -63469,35 +63480,28 @@
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C294" s="12"/>
+        <v>424</v>
+      </c>
       <c r="D294" t="s">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="E294" t="s">
-        <v>416</v>
+        <v>69</v>
       </c>
       <c r="G294">
         <v>2</v>
       </c>
-      <c r="H294">
-        <v>2</v>
-      </c>
-      <c r="I294">
-        <v>1</v>
-      </c>
       <c r="L294" s="1">
-        <v>1.4900000000000002E-11</v>
+        <v>1.6900000000000001E-13</v>
       </c>
       <c r="M294">
         <v>0</v>
       </c>
-      <c r="N294" s="1">
-        <v>-1760</v>
+      <c r="N294">
+        <v>363</v>
       </c>
       <c r="O294">
         <v>0</v>
@@ -63521,10 +63525,10 @@
         <v>0</v>
       </c>
       <c r="V294" t="s">
-        <v>420</v>
-      </c>
-      <c r="W294" s="5" t="s">
-        <v>87</v>
+        <v>480</v>
+      </c>
+      <c r="W294" t="s">
+        <v>482</v>
       </c>
       <c r="Y294" t="s">
         <v>418</v>
@@ -63532,33 +63536,40 @@
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>478</v>
+        <v>71</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>33</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C295" s="12"/>
       <c r="D295" t="s">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="E295" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="G295">
         <v>2</v>
       </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
       <c r="L295" s="1">
-        <v>1.4399999999999999E-10</v>
+        <v>1.4900000000000002E-11</v>
       </c>
       <c r="M295">
         <v>0</v>
       </c>
       <c r="N295" s="1">
-        <v>-481</v>
+        <v>-1760</v>
       </c>
       <c r="O295">
         <v>0</v>
       </c>
-      <c r="P295" s="1">
+      <c r="P295">
         <v>0</v>
       </c>
       <c r="Q295">
@@ -63577,13 +63588,10 @@
         <v>0</v>
       </c>
       <c r="V295" t="s">
-        <v>522</v>
-      </c>
-      <c r="W295" t="s">
-        <v>501</v>
-      </c>
-      <c r="X295" s="4" t="s">
-        <v>479</v>
+        <v>420</v>
+      </c>
+      <c r="W295" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y295" t="s">
         <v>418</v>
@@ -63597,22 +63605,22 @@
         <v>33</v>
       </c>
       <c r="D296" t="s">
-        <v>72</v>
+        <v>415</v>
       </c>
       <c r="E296" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="G296">
         <v>2</v>
       </c>
       <c r="L296" s="1">
-        <v>1.3E-11</v>
+        <v>1.4399999999999999E-10</v>
       </c>
       <c r="M296">
         <v>0</v>
       </c>
       <c r="N296" s="1">
-        <v>-1575</v>
+        <v>-481</v>
       </c>
       <c r="O296">
         <v>0</v>
@@ -63636,10 +63644,10 @@
         <v>0</v>
       </c>
       <c r="V296" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="W296" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="X296" s="4" t="s">
         <v>479</v>
@@ -63653,10 +63661,10 @@
         <v>478</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>416</v>
+        <v>33</v>
       </c>
       <c r="D297" t="s">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="E297" t="s">
         <v>416</v>
@@ -63665,13 +63673,13 @@
         <v>2</v>
       </c>
       <c r="L297" s="1">
-        <v>2.5400000000000001E-12</v>
+        <v>1.3E-11</v>
       </c>
       <c r="M297">
         <v>0</v>
       </c>
       <c r="N297" s="1">
-        <v>-3180</v>
+        <v>-1575</v>
       </c>
       <c r="O297">
         <v>0</v>
@@ -63695,10 +63703,13 @@
         <v>0</v>
       </c>
       <c r="V297" t="s">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="W297" t="s">
-        <v>483</v>
+        <v>499</v>
+      </c>
+      <c r="X297" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="Y297" t="s">
         <v>418</v>
@@ -63709,10 +63720,10 @@
         <v>478</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="D298" t="s">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="E298" t="s">
         <v>416</v>
@@ -63721,18 +63732,18 @@
         <v>2</v>
       </c>
       <c r="L298" s="1">
-        <v>3.7E-12</v>
+        <v>2.5400000000000001E-12</v>
       </c>
       <c r="M298">
         <v>0</v>
       </c>
       <c r="N298" s="1">
-        <v>-3520</v>
+        <v>-3180</v>
       </c>
       <c r="O298">
         <v>0</v>
       </c>
-      <c r="P298">
+      <c r="P298" s="1">
         <v>0</v>
       </c>
       <c r="Q298">
@@ -63751,10 +63762,10 @@
         <v>0</v>
       </c>
       <c r="V298" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="W298" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Y298" t="s">
         <v>418</v>
@@ -63765,30 +63776,30 @@
         <v>478</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>485</v>
+        <v>31</v>
       </c>
       <c r="D299" t="s">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="E299" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="G299">
         <v>2</v>
       </c>
       <c r="L299" s="1">
-        <v>6E-11</v>
+        <v>3.7E-12</v>
       </c>
       <c r="M299">
         <v>0</v>
       </c>
       <c r="N299" s="1">
-        <v>0</v>
+        <v>-3520</v>
       </c>
       <c r="O299">
         <v>0</v>
       </c>
-      <c r="P299" s="1">
+      <c r="P299">
         <v>0</v>
       </c>
       <c r="Q299">
@@ -63806,14 +63817,11 @@
       <c r="U299">
         <v>0</v>
       </c>
-      <c r="V299">
-        <v>298</v>
+      <c r="V299" t="s">
+        <v>487</v>
       </c>
       <c r="W299" t="s">
-        <v>488</v>
-      </c>
-      <c r="X299" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Y299" t="s">
         <v>418</v>
@@ -63827,16 +63835,16 @@
         <v>485</v>
       </c>
       <c r="D300" t="s">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="E300" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="G300">
         <v>2</v>
       </c>
       <c r="L300" s="1">
-        <v>1.06E-10</v>
+        <v>6E-11</v>
       </c>
       <c r="M300">
         <v>0</v>
@@ -63870,6 +63878,9 @@
       </c>
       <c r="W300" t="s">
         <v>488</v>
+      </c>
+      <c r="X300" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="Y300" t="s">
         <v>418</v>
@@ -63880,10 +63891,10 @@
         <v>478</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>52</v>
+        <v>485</v>
       </c>
       <c r="D301" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E301" t="s">
         <v>416</v>
@@ -63892,18 +63903,18 @@
         <v>2</v>
       </c>
       <c r="L301" s="1">
-        <v>4.2800000000000003E-12</v>
+        <v>1.06E-10</v>
       </c>
       <c r="M301">
         <v>0</v>
       </c>
-      <c r="N301">
-        <v>-767</v>
+      <c r="N301" s="1">
+        <v>0</v>
       </c>
       <c r="O301">
         <v>0</v>
       </c>
-      <c r="P301">
+      <c r="P301" s="1">
         <v>0</v>
       </c>
       <c r="Q301">
@@ -63921,11 +63932,11 @@
       <c r="U301">
         <v>0</v>
       </c>
-      <c r="V301" t="s">
-        <v>525</v>
-      </c>
-      <c r="W301" s="3" t="s">
-        <v>526</v>
+      <c r="V301">
+        <v>298</v>
+      </c>
+      <c r="W301" t="s">
+        <v>488</v>
       </c>
       <c r="Y301" t="s">
         <v>418</v>
@@ -63933,10 +63944,10 @@
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D302" t="s">
         <v>76</v>
@@ -63947,20 +63958,19 @@
       <c r="G302">
         <v>2</v>
       </c>
-      <c r="K302" s="1"/>
       <c r="L302" s="1">
-        <v>8.1249999999999995E-18</v>
+        <v>4.2800000000000003E-12</v>
       </c>
       <c r="M302">
-        <v>1.85</v>
-      </c>
-      <c r="N302" s="1">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>-767</v>
       </c>
       <c r="O302">
         <v>0</v>
       </c>
-      <c r="P302" s="1">
+      <c r="P302">
         <v>0</v>
       </c>
       <c r="Q302">
@@ -63979,10 +63989,10 @@
         <v>0</v>
       </c>
       <c r="V302" t="s">
-        <v>176</v>
+        <v>525</v>
       </c>
       <c r="W302" s="3" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="Y302" t="s">
         <v>418</v>
@@ -63990,25 +64000,29 @@
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D303" t="s">
-        <v>459</v>
+        <v>76</v>
+      </c>
+      <c r="E303" t="s">
+        <v>416</v>
       </c>
       <c r="G303">
         <v>2</v>
       </c>
+      <c r="K303" s="1"/>
       <c r="L303" s="1">
-        <v>1.2E-15</v>
+        <v>8.1249999999999995E-18</v>
       </c>
       <c r="M303">
-        <v>0</v>
-      </c>
-      <c r="N303">
-        <v>0</v>
+        <v>1.85</v>
+      </c>
+      <c r="N303" s="1">
+        <v>300</v>
       </c>
       <c r="O303">
         <v>0</v>
@@ -64031,11 +64045,11 @@
       <c r="U303">
         <v>0</v>
       </c>
-      <c r="V303">
-        <v>298</v>
-      </c>
-      <c r="W303" s="5" t="s">
-        <v>461</v>
+      <c r="V303" t="s">
+        <v>176</v>
+      </c>
+      <c r="W303" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="Y303" t="s">
         <v>418</v>
@@ -64046,23 +64060,14 @@
         <v>454</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D304" t="s">
-        <v>542</v>
+        <v>459</v>
       </c>
       <c r="G304">
         <v>2</v>
       </c>
-      <c r="H304">
-        <v>19</v>
-      </c>
-      <c r="I304">
-        <v>18</v>
-      </c>
-      <c r="J304">
-        <v>-0.5</v>
-      </c>
       <c r="L304" s="1">
         <v>1.2E-15</v>
       </c>
@@ -64097,30 +64102,36 @@
         <v>298</v>
       </c>
       <c r="W304" s="5" t="s">
-        <v>87</v>
+        <v>461</v>
       </c>
       <c r="Y304" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>52</v>
-      </c>
-      <c r="B305" t="s">
-        <v>52</v>
+      <c r="A305" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D305" t="s">
-        <v>79</v>
-      </c>
-      <c r="E305" t="s">
-        <v>31</v>
+        <v>542</v>
       </c>
       <c r="G305">
         <v>2</v>
       </c>
-      <c r="L305">
-        <v>1.8E-12</v>
+      <c r="H305">
+        <v>19</v>
+      </c>
+      <c r="I305">
+        <v>18</v>
+      </c>
+      <c r="J305">
+        <v>-0.5</v>
+      </c>
+      <c r="L305" s="1">
+        <v>1.2E-15</v>
       </c>
       <c r="M305">
         <v>0</v>
@@ -64131,7 +64142,7 @@
       <c r="O305">
         <v>0</v>
       </c>
-      <c r="P305">
+      <c r="P305" s="1">
         <v>0</v>
       </c>
       <c r="Q305">
@@ -64149,43 +64160,46 @@
       <c r="U305">
         <v>0</v>
       </c>
-      <c r="V305" t="s">
-        <v>229</v>
-      </c>
-      <c r="W305" t="s">
-        <v>105</v>
+      <c r="V305">
+        <v>298</v>
+      </c>
+      <c r="W305" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="Y305" t="s">
-        <v>42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B306" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D306" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="E306" t="s">
+        <v>31</v>
       </c>
       <c r="G306">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L306">
-        <v>1</v>
+        <v>1.8E-12</v>
       </c>
       <c r="M306">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N306">
         <v>0</v>
       </c>
       <c r="O306">
-        <v>2E-35</v>
+        <v>0</v>
       </c>
       <c r="P306">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q306">
         <v>0</v>
@@ -64203,10 +64217,10 @@
         <v>0</v>
       </c>
       <c r="V306" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W306" t="s">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="Y306" t="s">
         <v>42</v>
@@ -64217,10 +64231,10 @@
         <v>47</v>
       </c>
       <c r="B307" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D307" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G307">
         <v>4</v>
@@ -64259,7 +64273,7 @@
         <v>230</v>
       </c>
       <c r="W307" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="Y307" t="s">
         <v>42</v>
@@ -64270,10 +64284,10 @@
         <v>47</v>
       </c>
       <c r="B308" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D308" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G308">
         <v>4</v>
@@ -64282,19 +64296,19 @@
         <v>1</v>
       </c>
       <c r="M308">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N308">
-        <v>-1509</v>
+        <v>0</v>
       </c>
       <c r="O308">
-        <v>1.7E-33</v>
+        <v>2E-35</v>
       </c>
       <c r="P308">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q308">
-        <v>-1509</v>
+        <v>0</v>
       </c>
       <c r="R308">
         <v>0</v>
@@ -64306,13 +64320,13 @@
         <v>0</v>
       </c>
       <c r="U308">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V308" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="W308" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="Y308" t="s">
         <v>42</v>
@@ -64320,13 +64334,13 @@
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B309" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D309" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G309">
         <v>4</v>
@@ -64338,16 +64352,16 @@
         <v>0</v>
       </c>
       <c r="N309">
-        <v>0</v>
+        <v>-1509</v>
       </c>
       <c r="O309">
-        <v>5.0000000000000004E-32</v>
+        <v>1.7E-33</v>
       </c>
       <c r="P309">
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>0</v>
+        <v>-1509</v>
       </c>
       <c r="R309">
         <v>0</v>
@@ -64359,13 +64373,13 @@
         <v>0</v>
       </c>
       <c r="U309">
-        <v>0</v>
-      </c>
-      <c r="V309">
-        <v>298</v>
+        <v>0.4</v>
+      </c>
+      <c r="V309" t="s">
+        <v>57</v>
       </c>
       <c r="W309" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="Y309" t="s">
         <v>42</v>
@@ -64373,34 +64387,34 @@
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B310" t="s">
         <v>33</v>
       </c>
       <c r="D310" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="G310">
         <v>4</v>
       </c>
       <c r="L310">
-        <v>2.5300000000000002E-9</v>
+        <v>1</v>
       </c>
       <c r="M310">
-        <v>-0.41</v>
+        <v>0</v>
       </c>
       <c r="N310">
         <v>0</v>
       </c>
       <c r="O310">
-        <v>9.5599999999999997E-29</v>
+        <v>5.0000000000000004E-32</v>
       </c>
       <c r="P310">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="Q310">
-        <v>-212</v>
+        <v>0</v>
       </c>
       <c r="R310">
         <v>0</v>
@@ -64412,16 +64426,13 @@
         <v>0</v>
       </c>
       <c r="U310">
-        <v>0.82</v>
-      </c>
-      <c r="V310" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V310">
+        <v>298</v>
       </c>
       <c r="W310" t="s">
-        <v>233</v>
-      </c>
-      <c r="X310" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Y310" t="s">
         <v>42</v>
@@ -64432,31 +64443,31 @@
         <v>61</v>
       </c>
       <c r="B311" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D311" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G311">
         <v>4</v>
       </c>
       <c r="L311">
-        <v>4.8999999999999996E-10</v>
+        <v>2.5300000000000002E-9</v>
       </c>
       <c r="M311">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="N311">
         <v>0</v>
       </c>
       <c r="O311">
-        <v>9.1999999999999994E-28</v>
+        <v>9.5599999999999997E-29</v>
       </c>
       <c r="P311">
-        <v>-1.6</v>
+        <v>-1.17</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-212</v>
       </c>
       <c r="R311">
         <v>0</v>
@@ -64468,13 +64479,13 @@
         <v>0</v>
       </c>
       <c r="U311">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="V311" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="W311" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="X311" t="s">
         <v>234</v>
@@ -64485,34 +64496,34 @@
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
+        <v>61</v>
+      </c>
+      <c r="B312" t="s">
         <v>31</v>
       </c>
-      <c r="B312" t="s">
-        <v>26</v>
-      </c>
       <c r="D312" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G312">
         <v>4</v>
       </c>
       <c r="L312">
-        <v>1</v>
+        <v>4.8999999999999996E-10</v>
       </c>
       <c r="M312">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N312">
         <v>0</v>
       </c>
       <c r="O312">
-        <v>5.46E-33</v>
+        <v>9.1999999999999994E-28</v>
       </c>
       <c r="P312">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="Q312">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="R312">
         <v>0</v>
@@ -64524,13 +64535,13 @@
         <v>0</v>
       </c>
       <c r="U312">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="V312" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W312" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="X312" t="s">
         <v>234</v>
@@ -64541,28 +64552,19 @@
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B313" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D313" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="G313">
         <v>4</v>
       </c>
-      <c r="H313">
-        <v>18</v>
-      </c>
-      <c r="I313">
-        <v>17</v>
-      </c>
-      <c r="J313">
-        <v>-0.5</v>
-      </c>
       <c r="L313">
-        <v>2.6000000000000001E-11</v>
+        <v>1</v>
       </c>
       <c r="M313">
         <v>0</v>
@@ -64571,13 +64573,13 @@
         <v>0</v>
       </c>
       <c r="O313">
-        <v>6.6000000000000006E-29</v>
+        <v>5.46E-33</v>
       </c>
       <c r="P313">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="Q313">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="R313">
         <v>0</v>
@@ -64589,10 +64591,16 @@
         <v>0</v>
       </c>
       <c r="U313">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="V313" t="s">
+        <v>236</v>
       </c>
       <c r="W313" t="s">
-        <v>87</v>
+        <v>237</v>
+      </c>
+      <c r="X313" t="s">
+        <v>234</v>
       </c>
       <c r="Y313" t="s">
         <v>42</v>
@@ -64600,17 +64608,26 @@
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B314" t="s">
         <v>52</v>
       </c>
       <c r="D314" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G314">
         <v>4</v>
       </c>
+      <c r="H314">
+        <v>18</v>
+      </c>
+      <c r="I314">
+        <v>17</v>
+      </c>
+      <c r="J314">
+        <v>-0.5</v>
+      </c>
       <c r="L314">
         <v>2.6000000000000001E-11</v>
       </c>
@@ -64641,46 +64658,40 @@
       <c r="U314">
         <v>0.5</v>
       </c>
-      <c r="V314" t="s">
-        <v>176</v>
-      </c>
       <c r="W314" t="s">
-        <v>49</v>
-      </c>
-      <c r="X314" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="Y314" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B315" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D315" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G315">
         <v>4</v>
       </c>
       <c r="L315">
-        <v>1</v>
+        <v>2.6000000000000001E-11</v>
       </c>
       <c r="M315">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="N315">
         <v>0</v>
       </c>
       <c r="O315">
-        <v>4.7499999999999999E-34</v>
+        <v>6.6000000000000006E-29</v>
       </c>
       <c r="P315">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="Q315">
         <v>0</v>
@@ -64695,51 +64706,48 @@
         <v>0</v>
       </c>
       <c r="U315">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="V315" t="s">
+        <v>176</v>
       </c>
       <c r="W315" t="s">
-        <v>105</v>
+        <v>49</v>
+      </c>
+      <c r="X315" t="s">
+        <v>238</v>
       </c>
       <c r="Y315" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B316" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D316" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="G316">
-        <v>5</v>
-      </c>
-      <c r="H316">
-        <v>18</v>
-      </c>
-      <c r="I316">
-        <v>17</v>
-      </c>
-      <c r="J316">
-        <v>-0.5</v>
+        <v>4</v>
       </c>
       <c r="L316">
-        <v>6.6242246742872797E-16</v>
+        <v>1</v>
       </c>
       <c r="M316">
-        <v>1.3</v>
+        <v>-0.9</v>
       </c>
       <c r="N316">
         <v>0</v>
       </c>
       <c r="O316">
-        <v>1.7330926013789299E-29</v>
+        <v>4.7499999999999999E-34</v>
       </c>
       <c r="P316">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
       <c r="Q316">
         <v>0</v>
@@ -64757,7 +64765,7 @@
         <v>0</v>
       </c>
       <c r="W316" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="Y316" t="s">
         <v>42</v>
@@ -64768,14 +64776,23 @@
         <v>47</v>
       </c>
       <c r="B317" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D317" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="G317">
         <v>5</v>
       </c>
+      <c r="H317">
+        <v>18</v>
+      </c>
+      <c r="I317">
+        <v>17</v>
+      </c>
+      <c r="J317">
+        <v>-0.5</v>
+      </c>
       <c r="L317">
         <v>6.6242246742872797E-16</v>
       </c>
@@ -64807,7 +64824,7 @@
         <v>0</v>
       </c>
       <c r="W317" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="Y317" t="s">
         <v>42</v>
@@ -64815,40 +64832,31 @@
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B318" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D318" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="G318">
         <v>5</v>
       </c>
-      <c r="H318">
-        <v>2</v>
-      </c>
-      <c r="I318">
-        <v>1</v>
-      </c>
-      <c r="J318">
-        <v>-0.5</v>
-      </c>
       <c r="L318">
-        <v>2.39682878878546E-11</v>
+        <v>6.6242246742872797E-16</v>
       </c>
       <c r="M318">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="N318">
         <v>0</v>
       </c>
       <c r="O318">
-        <v>1.46130309220551E-28</v>
+        <v>1.7330926013789299E-29</v>
       </c>
       <c r="P318">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="Q318">
         <v>0</v>
@@ -64866,7 +64874,7 @@
         <v>0</v>
       </c>
       <c r="W318" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="Y318" t="s">
         <v>42</v>
@@ -64874,19 +64882,28 @@
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B319" t="s">
         <v>69</v>
       </c>
       <c r="D319" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G319">
         <v>5</v>
       </c>
+      <c r="H319">
+        <v>2</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>-0.5</v>
+      </c>
       <c r="L319">
-        <v>2.39683E-11</v>
+        <v>2.39682878878546E-11</v>
       </c>
       <c r="M319">
         <v>0.2</v>
@@ -64895,7 +64912,7 @@
         <v>0</v>
       </c>
       <c r="O319">
-        <v>1.4613E-28</v>
+        <v>1.46130309220551E-28</v>
       </c>
       <c r="P319">
         <v>-1.3</v>
@@ -64916,7 +64933,7 @@
         <v>0</v>
       </c>
       <c r="W319" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="Y319" t="s">
         <v>42</v>
@@ -64924,31 +64941,31 @@
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B320" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D320" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="G320">
         <v>5</v>
       </c>
       <c r="L320">
-        <v>6.3699999999999997E-11</v>
+        <v>2.39683E-11</v>
       </c>
       <c r="M320">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N320">
         <v>0</v>
       </c>
       <c r="O320">
-        <v>1.93E-24</v>
+        <v>1.4613E-28</v>
       </c>
       <c r="P320">
-        <v>-2.6</v>
+        <v>-1.3</v>
       </c>
       <c r="Q320">
         <v>0</v>
@@ -64966,7 +64983,7 @@
         <v>0</v>
       </c>
       <c r="W320" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="Y320" t="s">
         <v>42</v>
@@ -64974,31 +64991,31 @@
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B321" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D321" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G321">
         <v>5</v>
       </c>
       <c r="L321">
-        <v>2.21E-11</v>
+        <v>6.3699999999999997E-11</v>
       </c>
       <c r="M321">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="N321">
         <v>0</v>
       </c>
       <c r="O321">
-        <v>5.0199999999999997E-23</v>
+        <v>1.93E-24</v>
       </c>
       <c r="P321">
-        <v>-3.4</v>
+        <v>-2.6</v>
       </c>
       <c r="Q321">
         <v>0</v>
@@ -65027,28 +65044,28 @@
         <v>91</v>
       </c>
       <c r="B322" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D322" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G322">
         <v>5</v>
       </c>
       <c r="L322">
-        <v>1.19E-9</v>
+        <v>2.21E-11</v>
       </c>
       <c r="M322">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="N322">
         <v>0</v>
       </c>
       <c r="O322">
-        <v>7.1899999999999994E-27</v>
+        <v>5.0199999999999997E-23</v>
       </c>
       <c r="P322">
-        <v>-1.8</v>
+        <v>-3.4</v>
       </c>
       <c r="Q322">
         <v>0</v>
@@ -65077,28 +65094,28 @@
         <v>91</v>
       </c>
       <c r="B323" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D323" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="G323">
         <v>5</v>
       </c>
       <c r="L323">
-        <v>2.8E-11</v>
+        <v>1.19E-9</v>
       </c>
       <c r="M323">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="N323">
         <v>0</v>
       </c>
       <c r="O323">
-        <v>4.8600000000000002E-23</v>
+        <v>7.1899999999999994E-27</v>
       </c>
       <c r="P323">
-        <v>-3</v>
+        <v>-1.8</v>
       </c>
       <c r="Q323">
         <v>0</v>
@@ -65130,25 +65147,25 @@
         <v>52</v>
       </c>
       <c r="D324" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G324">
         <v>5</v>
       </c>
       <c r="L324">
-        <v>7270000000000</v>
+        <v>2.8E-11</v>
       </c>
       <c r="M324">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N324">
         <v>0</v>
       </c>
       <c r="O324">
-        <v>4.1700000000000001E-22</v>
+        <v>4.8600000000000002E-23</v>
       </c>
       <c r="P324">
-        <v>-3.9</v>
+        <v>-3</v>
       </c>
       <c r="Q324">
         <v>0</v>
@@ -65174,43 +65191,31 @@
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B325" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D325" t="s">
-        <v>63</v>
-      </c>
-      <c r="E325" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="G325">
-        <v>6</v>
-      </c>
-      <c r="H325">
-        <v>18</v>
-      </c>
-      <c r="I325">
-        <v>17</v>
-      </c>
-      <c r="J325">
+        <v>5</v>
+      </c>
+      <c r="L325">
+        <v>7270000000000</v>
+      </c>
+      <c r="M325">
         <v>-0.5</v>
       </c>
-      <c r="L325">
-        <v>1.62846954489706E-6</v>
-      </c>
-      <c r="M325">
-        <v>6.1</v>
-      </c>
       <c r="N325">
         <v>0</v>
       </c>
       <c r="O325">
-        <v>4.8957418118048899E-15</v>
+        <v>4.1700000000000001E-22</v>
       </c>
       <c r="P325">
-        <v>0.6</v>
+        <v>-3.9</v>
       </c>
       <c r="Q325">
         <v>0</v>
@@ -65228,7 +65233,7 @@
         <v>0</v>
       </c>
       <c r="W325" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="Y325" t="s">
         <v>42</v>
@@ -65239,17 +65244,26 @@
         <v>47</v>
       </c>
       <c r="B326" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D326" t="s">
         <v>63</v>
       </c>
       <c r="E326" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G326">
         <v>6</v>
       </c>
+      <c r="H326">
+        <v>18</v>
+      </c>
+      <c r="I326">
+        <v>17</v>
+      </c>
+      <c r="J326">
+        <v>-0.5</v>
+      </c>
       <c r="L326">
         <v>1.62846954489706E-6</v>
       </c>
@@ -65281,9 +65295,62 @@
         <v>0</v>
       </c>
       <c r="W326" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>47</v>
+      </c>
+      <c r="B327" t="s">
+        <v>52</v>
+      </c>
+      <c r="D327" t="s">
+        <v>63</v>
+      </c>
+      <c r="E327" t="s">
+        <v>33</v>
+      </c>
+      <c r="G327">
+        <v>6</v>
+      </c>
+      <c r="L327">
+        <v>1.62846954489706E-6</v>
+      </c>
+      <c r="M327">
+        <v>6.1</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+      <c r="O327">
+        <v>4.8957418118048899E-15</v>
+      </c>
+      <c r="P327">
+        <v>0.6</v>
+      </c>
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327">
+        <v>0</v>
+      </c>
+      <c r="S327">
+        <v>0</v>
+      </c>
+      <c r="T327">
+        <v>0</v>
+      </c>
+      <c r="U327">
+        <v>0</v>
+      </c>
+      <c r="W327" t="s">
         <v>224</v>
       </c>
-      <c r="Y326" t="s">
+      <c r="Y327" t="s">
         <v>42</v>
       </c>
     </row>
@@ -67767,11 +67834,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y175"/>
+  <dimension ref="A1:Y177"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A175" sqref="A175:XFD175"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -73804,6 +73871,65 @@
         <v>513</v>
       </c>
       <c r="Y175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D177" t="s">
+        <v>478</v>
+      </c>
+      <c r="E177" t="s">
+        <v>33</v>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
+      <c r="L177" s="1">
+        <v>1.1000000000000001E-11</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>-1130</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177" t="s">
+        <v>522</v>
+      </c>
+      <c r="W177" t="s">
+        <v>523</v>
+      </c>
+      <c r="X177" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y177" t="s">
         <v>418</v>
       </c>
     </row>

--- a/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
+++ b/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01a63ffdd6170d0a/Desktop/copy REU Research/bluejay/Venus-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5072E0A-A865-46C2-BD4F-868AE022A8D7}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA1BBDEB-939F-4C9D-A854-CB80CCB96AC5}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="900" windowWidth="21528" windowHeight="11832" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ion reactions" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9449" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9461" uniqueCount="546">
   <si>
     <t>R1</t>
   </si>
@@ -1666,6 +1666,9 @@
   <si>
     <t>This is not mass scaleing whitch I did use in the actual model</t>
   </si>
+  <si>
+    <t>Blitz, M.A.; McKee, K.W.; Pilling, M.J.  2000, NIST</t>
+  </si>
 </sst>
 </file>
 
@@ -46704,8 +46707,8 @@
   <dimension ref="A1:Y327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F289" sqref="F289"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -66711,7 +66714,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:E33"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -67834,11 +67837,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y177"/>
+  <dimension ref="A1:Y180"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -73930,6 +73933,119 @@
         <v>479</v>
       </c>
       <c r="Y177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D179" t="s">
+        <v>450</v>
+      </c>
+      <c r="E179" t="s">
+        <v>33</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+      <c r="L179" s="1">
+        <v>8.6E-11</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>298</v>
+      </c>
+      <c r="W179" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" t="s">
+        <v>450</v>
+      </c>
+      <c r="E180" t="s">
+        <v>33</v>
+      </c>
+      <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="L180" s="1">
+        <v>8.17E-11</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>298</v>
+      </c>
+      <c r="W180" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y180" t="s">
         <v>418</v>
       </c>
     </row>

--- a/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
+++ b/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01a63ffdd6170d0a/Desktop/copy REU Research/bluejay/Venus-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA1BBDEB-939F-4C9D-A854-CB80CCB96AC5}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="11_22B1562E36924AB92818D941A36D1037A47DC3BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E8C9A90-5080-46CB-80EF-697FBB841B2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46707,8 +46707,8 @@
   <dimension ref="A1:Y327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H298" sqref="H298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -63130,6 +63130,9 @@
       <c r="I288">
         <v>2</v>
       </c>
+      <c r="J288">
+        <v>-0.5</v>
+      </c>
       <c r="L288" s="1">
         <v>3.9000000000000001E-11</v>
       </c>
@@ -63193,6 +63196,9 @@
       <c r="I289">
         <v>2</v>
       </c>
+      <c r="J289">
+        <v>-0.5</v>
+      </c>
       <c r="L289" s="1">
         <v>3.9000000000000001E-11</v>
       </c>
@@ -63255,6 +63261,9 @@
       <c r="I290">
         <v>33</v>
       </c>
+      <c r="J290">
+        <v>-0.5</v>
+      </c>
       <c r="L290" s="1">
         <v>1.7999999999999999E-11</v>
       </c>
@@ -63317,6 +63326,9 @@
       <c r="I291">
         <v>2</v>
       </c>
+      <c r="J291">
+        <v>-0.5</v>
+      </c>
       <c r="L291" s="1">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -63379,6 +63391,9 @@
       <c r="I292">
         <v>2</v>
       </c>
+      <c r="J292">
+        <v>-0.5</v>
+      </c>
       <c r="L292" s="1">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -63441,6 +63456,9 @@
       <c r="I293">
         <v>17</v>
       </c>
+      <c r="J293">
+        <v>-0.5</v>
+      </c>
       <c r="L293" s="1">
         <v>1.7999999999999999E-11</v>
       </c>
@@ -63559,6 +63577,9 @@
       </c>
       <c r="I295">
         <v>1</v>
+      </c>
+      <c r="J295">
+        <v>-0.5</v>
       </c>
       <c r="L295" s="1">
         <v>1.4900000000000002E-11</v>

--- a/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
+++ b/Venus-Inputs/REACTION_NETWORK_VENUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01a63ffdd6170d0a/Desktop/copy REU Research/bluejay/Venus-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="455" documentId="13_ncr:1_{3E1F0C3F-1592-4064-8723-1B3B87D59E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0012F6F5-5151-4FCD-81BC-A90B732A0842}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="13_ncr:1_{3E1F0C3F-1592-4064-8723-1B3B87D59E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB600D30-46BF-4BDA-BE4A-B5C69173B63B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ion reactions" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,19 @@
     <sheet name="Unused ion reactions" sheetId="6" r:id="rId6"/>
     <sheet name="sulfur-chlorine planning" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10582" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10585" uniqueCount="694">
   <si>
     <t>R1</t>
   </si>
@@ -2105,6 +2116,15 @@
   <si>
     <t>Lizardo-Huerta, J.-C.; Sirjean, B.; Verdier, L.; Fournet, R.; Glaude, P.-A. 2018, NIST</t>
   </si>
+  <si>
+    <t>Hintze 2003 and Burkholder 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lane 2008,  Hintze 2003, Burkholder 2000, and Mills 2005 </t>
+  </si>
+  <si>
+    <t>Bahou 2001</t>
+  </si>
 </sst>
 </file>
 
@@ -2391,10 +2411,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2432,7 +2456,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2538,7 +2562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2680,7 +2704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -47296,7 +47320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA453"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R320" sqref="R320"/>
     </sheetView>
@@ -74281,9 +74305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -75467,6 +75491,9 @@
       <c r="K38" t="s">
         <v>44</v>
       </c>
+      <c r="U38" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -75548,6 +75575,9 @@
       <c r="K41" t="s">
         <v>44</v>
       </c>
+      <c r="U41" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -75614,6 +75644,9 @@
       </c>
       <c r="J43">
         <v>0</v>
+      </c>
+      <c r="U43" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
